--- a/Code/Results/Cases/Case_2_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_12/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9824310484277418</v>
+        <v>0.9824310484277432</v>
       </c>
       <c r="D2">
-        <v>1.003788880292267</v>
+        <v>1.003788880292269</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9923614248563795</v>
+        <v>0.9923614248563809</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038160522569664</v>
+        <v>1.038160522569665</v>
       </c>
       <c r="J2">
-        <v>1.00515024988671</v>
+        <v>1.005150249886712</v>
       </c>
       <c r="K2">
-        <v>1.015195681170753</v>
+        <v>1.015195681170755</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.003928213025278</v>
+        <v>1.00392821302528</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9916818082491617</v>
+        <v>0.9916818082491603</v>
       </c>
       <c r="D3">
-        <v>1.010721068557634</v>
+        <v>1.010721068557632</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.001701336793422</v>
+        <v>1.001701336793421</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.04146319845684</v>
       </c>
       <c r="J3">
-        <v>1.012401833075899</v>
+        <v>1.012401833075897</v>
       </c>
       <c r="K3">
-        <v>1.021218584794086</v>
+        <v>1.021218584794085</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.01231249488487</v>
+        <v>1.012312494884869</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,7 +497,7 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9974339758656182</v>
+        <v>0.9974339758656188</v>
       </c>
       <c r="D4">
         <v>1.015032757926887</v>
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043499072592819</v>
+        <v>1.043499072592818</v>
       </c>
       <c r="J4">
-        <v>1.016903549347535</v>
+        <v>1.016903549347536</v>
       </c>
       <c r="K4">
         <v>1.024953074226732</v>
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9998002410245569</v>
+        <v>0.9998002410245576</v>
       </c>
       <c r="D5">
-        <v>1.016806579877736</v>
+        <v>1.016806579877737</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
         <v>1.009910355685304</v>
@@ -550,16 +550,16 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044332228259943</v>
+        <v>1.044332228259944</v>
       </c>
       <c r="J5">
-        <v>1.018753576745806</v>
+        <v>1.018753576745807</v>
       </c>
       <c r="K5">
         <v>1.026486685889618</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
         <v>1.019668987082629</v>
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000194609113439</v>
+        <v>1.000194609113441</v>
       </c>
       <c r="D6">
-        <v>1.017102212578719</v>
+        <v>1.01710221257872</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>1.010309430901143</v>
+        <v>1.010309430901145</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044470826507057</v>
+        <v>1.044470826507058</v>
       </c>
       <c r="J6">
-        <v>1.019061796876663</v>
+        <v>1.019061796876665</v>
       </c>
       <c r="K6">
-        <v>1.026742123357997</v>
+        <v>1.026742123357999</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>1.020026291766835</v>
+        <v>1.020026291766837</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9974657931793653</v>
+        <v>0.9974657931793651</v>
       </c>
       <c r="D7">
         <v>1.015056608834655</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
         <v>1.007548634786219</v>
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043510292703023</v>
+        <v>1.043510292703022</v>
       </c>
       <c r="J7">
         <v>1.016928432611398</v>
@@ -635,7 +635,7 @@
         <v>1.024973706112448</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
         <v>1.017553829081934</v>
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9856083333272677</v>
+        <v>0.9856083333272672</v>
       </c>
       <c r="D8">
-        <v>1.006169455243402</v>
+        <v>1.006169455243401</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>0.9955676946409419</v>
+        <v>0.9955676946409412</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>1.039298583727476</v>
       </c>
       <c r="J8">
-        <v>1.007642406428533</v>
+        <v>1.007642406428532</v>
       </c>
       <c r="K8">
         <v>1.017266500849423</v>
@@ -676,7 +676,7 @@
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.006808040946494</v>
+        <v>1.006808040946493</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9627156356379744</v>
+        <v>0.9627156356379774</v>
       </c>
       <c r="D9">
-        <v>0.9890307220156302</v>
+        <v>0.9890307220156329</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9435740419923924</v>
       </c>
       <c r="F9">
-        <v>0.9725022949404921</v>
+        <v>0.9725022949404948</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031024268527318</v>
+        <v>1.03102426852732</v>
       </c>
       <c r="J9">
-        <v>0.9896573658297859</v>
+        <v>0.9896573658297887</v>
       </c>
       <c r="K9">
-        <v>1.002304311036304</v>
+        <v>1.002304311036307</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9576541208832517</v>
       </c>
       <c r="M9">
-        <v>0.9860578354333904</v>
+        <v>0.986057835433393</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9457612769657102</v>
+        <v>0.9457612769657086</v>
       </c>
       <c r="D10">
-        <v>0.9763664780638328</v>
+        <v>0.9763664780638315</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9361465105547279</v>
       </c>
       <c r="F10">
-        <v>0.9554709891299236</v>
+        <v>0.9554709891299216</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024804821850724</v>
+        <v>1.024804821850723</v>
       </c>
       <c r="J10">
-        <v>0.9763053175525392</v>
+        <v>0.9763053175525376</v>
       </c>
       <c r="K10">
-        <v>0.9911759690508276</v>
+        <v>0.9911759690508259</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689356</v>
       </c>
       <c r="M10">
-        <v>0.9706936275831062</v>
+        <v>0.9706936275831044</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9379183475830331</v>
+        <v>0.9379183475830304</v>
       </c>
       <c r="D11">
-        <v>0.9705192533999849</v>
+        <v>0.9705192533999825</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9328454960016259</v>
       </c>
       <c r="F11">
-        <v>0.9476062156801059</v>
+        <v>0.9476062156801037</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021907849109337</v>
+        <v>1.021907849109336</v>
       </c>
       <c r="J11">
-        <v>0.9701230091522457</v>
+        <v>0.9701230091522433</v>
       </c>
       <c r="K11">
-        <v>0.9860194040214136</v>
+        <v>0.9860194040214112</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9635887949528431</v>
+        <v>0.9635887949528407</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9349190514534219</v>
+        <v>0.934919051453421</v>
       </c>
       <c r="D12">
-        <v>0.9682852734976169</v>
+        <v>0.9682852734976164</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.9446007996418283</v>
+        <v>0.9446007996418273</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.020797187905482</v>
       </c>
       <c r="J12">
-        <v>0.9677581014958841</v>
+        <v>0.9677581014958834</v>
       </c>
       <c r="K12">
-        <v>0.9840463894643459</v>
+        <v>0.9840463894643451</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>0.9608723161801499</v>
+        <v>0.9608723161801488</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9355665032348016</v>
+        <v>0.9355665032348022</v>
       </c>
       <c r="D13">
-        <v>0.9687674146614234</v>
+        <v>0.9687674146614239</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9452494688617158</v>
+        <v>0.9452494688617163</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.021037066722528</v>
       </c>
       <c r="J13">
-        <v>0.9682686355888818</v>
+        <v>0.9682686355888822</v>
       </c>
       <c r="K13">
-        <v>0.9844723419830035</v>
+        <v>0.9844723419830038</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.9614586886030249</v>
+        <v>0.9614586886030253</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9376722510420613</v>
+        <v>0.9376722510420604</v>
       </c>
       <c r="D14">
-        <v>0.9703359065241036</v>
+        <v>0.970335906524103</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.9473595707879584</v>
+        <v>0.947359570787958</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021816773121547</v>
+        <v>1.021816773121546</v>
       </c>
       <c r="J14">
-        <v>0.9699289772848104</v>
+        <v>0.9699289772848095</v>
       </c>
       <c r="K14">
-        <v>0.9858575346382383</v>
+        <v>0.9858575346382377</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9633658916493399</v>
+        <v>0.9633658916493393</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9389579056704631</v>
+        <v>0.9389579056704612</v>
       </c>
       <c r="D15">
-        <v>0.9712938336379328</v>
+        <v>0.9712938336379311</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.9486481815624443</v>
+        <v>0.9486481815624423</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.022292459148366</v>
       </c>
       <c r="J15">
-        <v>0.9709426105644788</v>
+        <v>0.9709426105644768</v>
       </c>
       <c r="K15">
-        <v>0.9867031304188627</v>
+        <v>0.9867031304188609</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.964530403999182</v>
+        <v>0.9645304039991801</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.946270352611294</v>
+        <v>0.946270352611293</v>
       </c>
       <c r="D16">
-        <v>0.9767462783854364</v>
+        <v>0.9767462783854356</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017256</v>
       </c>
       <c r="F16">
-        <v>0.9559817778418763</v>
+        <v>0.9559817778418759</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.024992468095512</v>
       </c>
       <c r="J16">
-        <v>0.9767065016846095</v>
+        <v>0.9767065016846087</v>
       </c>
       <c r="K16">
-        <v>0.9915105187624563</v>
+        <v>0.9915105187624557</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9519451749175714</v>
       </c>
       <c r="M16">
-        <v>0.9711548596452834</v>
+        <v>0.9711548596452829</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9507160615087161</v>
+        <v>0.9507160615087155</v>
       </c>
       <c r="D17">
-        <v>0.9800643243287434</v>
+        <v>0.9800643243287428</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9382760156855667</v>
       </c>
       <c r="F17">
-        <v>0.9604439963840945</v>
+        <v>0.9604439963840943</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.026628964315202</v>
       </c>
       <c r="J17">
-        <v>0.9802093805323523</v>
+        <v>0.9802093805323518</v>
       </c>
       <c r="K17">
-        <v>0.9944311665987785</v>
+        <v>0.9944311665987779</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>0.975183052202852</v>
+        <v>0.9751830522028515</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9532616017709168</v>
+        <v>0.953261601770917</v>
       </c>
       <c r="D18">
-        <v>0.9819651837065488</v>
+        <v>0.9819651837065489</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9393832867215686</v>
       </c>
       <c r="F18">
-        <v>0.9630002523077088</v>
+        <v>0.9630002523077091</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,7 +1047,7 @@
         <v>1.027564135870342</v>
       </c>
       <c r="J18">
-        <v>0.9822145220927709</v>
+        <v>0.9822145220927714</v>
       </c>
       <c r="K18">
         <v>0.9961026565572186</v>
@@ -1056,7 +1056,7 @@
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9774897491121594</v>
+        <v>0.9774897491121596</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9541217881067895</v>
+        <v>0.9541217881067899</v>
       </c>
       <c r="D19">
-        <v>0.9826076781049374</v>
+        <v>0.9826076781049375</v>
       </c>
       <c r="E19">
-        <v>0.939759481468009</v>
+        <v>0.9397594814680089</v>
       </c>
       <c r="F19">
-        <v>0.9638642694076571</v>
+        <v>0.9638642694076577</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02787982755212</v>
+        <v>1.027879827552119</v>
       </c>
       <c r="J19">
         <v>0.9828919989423007</v>
       </c>
       <c r="K19">
-        <v>0.996667337663013</v>
+        <v>0.9966673376630129</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9782692583530583</v>
+        <v>0.9782692583530588</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.950244069585383</v>
+        <v>0.9502440695853859</v>
       </c>
       <c r="D20">
-        <v>0.9797119470127331</v>
+        <v>0.9797119470127361</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660139</v>
+        <v>0.9380716924660141</v>
       </c>
       <c r="F20">
-        <v>0.959970119069779</v>
+        <v>0.9599701190697814</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026455413276987</v>
+        <v>1.026455413276989</v>
       </c>
       <c r="J20">
-        <v>0.9798375429350967</v>
+        <v>0.9798375429350996</v>
       </c>
       <c r="K20">
-        <v>0.9941211715703314</v>
+        <v>0.9941211715703339</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>0.9747553631234975</v>
+        <v>0.9747553631235</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1146,13 +1146,13 @@
         <v>0.9370546346413794</v>
       </c>
       <c r="D21">
-        <v>0.9698758054904476</v>
+        <v>0.9698758054904477</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9467406146598704</v>
+        <v>0.94674061465987</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.021588160003662</v>
       </c>
       <c r="J21">
-        <v>0.9694420150926019</v>
+        <v>0.969442015092602</v>
       </c>
       <c r="K21">
-        <v>0.9854512833338149</v>
+        <v>0.9854512833338147</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981066</v>
+        <v>0.9488714019981065</v>
       </c>
       <c r="M21">
-        <v>0.9628064917246236</v>
+        <v>0.9628064917246233</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9282567494740382</v>
+        <v>0.9282567494740395</v>
       </c>
       <c r="D22">
-        <v>0.9633274562101</v>
+        <v>0.9633274562101012</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651161</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>0.9379292600317775</v>
+        <v>0.9379292600317781</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.018325144094758</v>
+        <v>1.018325144094759</v>
       </c>
       <c r="J22">
-        <v>0.9625039823054002</v>
+        <v>0.9625039823054014</v>
       </c>
       <c r="K22">
-        <v>0.9796621733943307</v>
+        <v>0.9796621733943316</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>0.9548394896617144</v>
+        <v>0.9548394896617151</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9329727722074609</v>
+        <v>0.9329727722074603</v>
       </c>
       <c r="D23">
-        <v>0.9668362774732324</v>
+        <v>0.9668362774732319</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963314</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>0.9426512029526481</v>
+        <v>0.9426512029526475</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020075703879264</v>
+        <v>1.020075703879263</v>
       </c>
       <c r="J23">
-        <v>0.9662233250088108</v>
+        <v>0.9662233250088104</v>
       </c>
       <c r="K23">
-        <v>0.9827658215744882</v>
+        <v>0.9827658215744878</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285318</v>
+        <v>0.9475391330285315</v>
       </c>
       <c r="M23">
-        <v>0.9591097420759472</v>
+        <v>0.9591097420759467</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9504574886244075</v>
+        <v>0.950457488624406</v>
       </c>
       <c r="D24">
-        <v>0.9798712772233934</v>
+        <v>0.9798712772233923</v>
       </c>
       <c r="E24">
         <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>0.9601843867000752</v>
+        <v>0.9601843867000742</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026533893085</v>
+        <v>1.026533893084999</v>
       </c>
       <c r="J24">
-        <v>0.9800056772472288</v>
+        <v>0.9800056772472273</v>
       </c>
       <c r="K24">
-        <v>0.9942613435943125</v>
+        <v>0.9942613435943112</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442449</v>
+        <v>0.9533716596442451</v>
       </c>
       <c r="M24">
-        <v>0.9749487492194961</v>
+        <v>0.9749487492194951</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9689031318617581</v>
+        <v>0.9689031318617602</v>
       </c>
       <c r="D25">
-        <v>0.9936594134101652</v>
+        <v>0.9936594134101667</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717733</v>
+        <v>0.9463835801717734</v>
       </c>
       <c r="F25">
-        <v>0.9787283929594325</v>
+        <v>0.9787283929594344</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.033276501457838</v>
       </c>
       <c r="J25">
-        <v>0.9945243445705965</v>
+        <v>0.9945243445705986</v>
       </c>
       <c r="K25">
-        <v>1.006356962776779</v>
+        <v>1.006356962776781</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005611</v>
+        <v>0.9598754494005612</v>
       </c>
       <c r="M25">
-        <v>0.9916661498199448</v>
+        <v>0.9916661498199468</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_12/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9824310484277432</v>
+        <v>0.9824310484277418</v>
       </c>
       <c r="D2">
-        <v>1.003788880292269</v>
+        <v>1.003788880292267</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9923614248563809</v>
+        <v>0.9923614248563795</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038160522569665</v>
+        <v>1.038160522569664</v>
       </c>
       <c r="J2">
-        <v>1.005150249886712</v>
+        <v>1.00515024988671</v>
       </c>
       <c r="K2">
-        <v>1.015195681170755</v>
+        <v>1.015195681170753</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.00392821302528</v>
+        <v>1.003928213025278</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9916818082491603</v>
+        <v>0.9916818082491617</v>
       </c>
       <c r="D3">
-        <v>1.010721068557632</v>
+        <v>1.010721068557634</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.001701336793421</v>
+        <v>1.001701336793422</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.04146319845684</v>
       </c>
       <c r="J3">
-        <v>1.012401833075897</v>
+        <v>1.012401833075899</v>
       </c>
       <c r="K3">
-        <v>1.021218584794085</v>
+        <v>1.021218584794086</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.012312494884869</v>
+        <v>1.01231249488487</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,7 +497,7 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9974339758656188</v>
+        <v>0.9974339758656182</v>
       </c>
       <c r="D4">
         <v>1.015032757926887</v>
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043499072592818</v>
+        <v>1.043499072592819</v>
       </c>
       <c r="J4">
-        <v>1.016903549347536</v>
+        <v>1.016903549347535</v>
       </c>
       <c r="K4">
         <v>1.024953074226732</v>
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9998002410245576</v>
+        <v>0.9998002410245569</v>
       </c>
       <c r="D5">
-        <v>1.016806579877737</v>
+        <v>1.016806579877736</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
         <v>1.009910355685304</v>
@@ -550,16 +550,16 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044332228259944</v>
+        <v>1.044332228259943</v>
       </c>
       <c r="J5">
-        <v>1.018753576745807</v>
+        <v>1.018753576745806</v>
       </c>
       <c r="K5">
         <v>1.026486685889618</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
         <v>1.019668987082629</v>
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000194609113441</v>
+        <v>1.000194609113439</v>
       </c>
       <c r="D6">
-        <v>1.01710221257872</v>
+        <v>1.017102212578719</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.010309430901145</v>
+        <v>1.010309430901143</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044470826507058</v>
+        <v>1.044470826507057</v>
       </c>
       <c r="J6">
-        <v>1.019061796876665</v>
+        <v>1.019061796876663</v>
       </c>
       <c r="K6">
-        <v>1.026742123357999</v>
+        <v>1.026742123357997</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.020026291766837</v>
+        <v>1.020026291766835</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9974657931793651</v>
+        <v>0.9974657931793653</v>
       </c>
       <c r="D7">
         <v>1.015056608834655</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
         <v>1.007548634786219</v>
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043510292703022</v>
+        <v>1.043510292703023</v>
       </c>
       <c r="J7">
         <v>1.016928432611398</v>
@@ -635,7 +635,7 @@
         <v>1.024973706112448</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
         <v>1.017553829081934</v>
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9856083333272672</v>
+        <v>0.9856083333272677</v>
       </c>
       <c r="D8">
-        <v>1.006169455243401</v>
+        <v>1.006169455243402</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9955676946409412</v>
+        <v>0.9955676946409419</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>1.039298583727476</v>
       </c>
       <c r="J8">
-        <v>1.007642406428532</v>
+        <v>1.007642406428533</v>
       </c>
       <c r="K8">
         <v>1.017266500849423</v>
@@ -676,7 +676,7 @@
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.006808040946493</v>
+        <v>1.006808040946494</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9627156356379774</v>
+        <v>0.9627156356379744</v>
       </c>
       <c r="D9">
-        <v>0.9890307220156329</v>
+        <v>0.9890307220156302</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.9725022949404948</v>
+        <v>0.9725022949404921</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03102426852732</v>
+        <v>1.031024268527318</v>
       </c>
       <c r="J9">
-        <v>0.9896573658297887</v>
+        <v>0.9896573658297859</v>
       </c>
       <c r="K9">
-        <v>1.002304311036307</v>
+        <v>1.002304311036304</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>0.986057835433393</v>
+        <v>0.9860578354333904</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9457612769657086</v>
+        <v>0.9457612769657102</v>
       </c>
       <c r="D10">
-        <v>0.9763664780638315</v>
+        <v>0.9763664780638328</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>0.9361465105547282</v>
       </c>
       <c r="F10">
-        <v>0.9554709891299216</v>
+        <v>0.9554709891299236</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024804821850723</v>
+        <v>1.024804821850724</v>
       </c>
       <c r="J10">
-        <v>0.9763053175525376</v>
+        <v>0.9763053175525392</v>
       </c>
       <c r="K10">
-        <v>0.9911759690508259</v>
+        <v>0.9911759690508276</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>0.9706936275831044</v>
+        <v>0.9706936275831062</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9379183475830304</v>
+        <v>0.9379183475830331</v>
       </c>
       <c r="D11">
-        <v>0.9705192533999825</v>
+        <v>0.9705192533999849</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9476062156801037</v>
+        <v>0.9476062156801059</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021907849109336</v>
+        <v>1.021907849109337</v>
       </c>
       <c r="J11">
-        <v>0.9701230091522433</v>
+        <v>0.9701230091522457</v>
       </c>
       <c r="K11">
-        <v>0.9860194040214112</v>
+        <v>0.9860194040214136</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9635887949528407</v>
+        <v>0.9635887949528431</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.934919051453421</v>
+        <v>0.9349190514534219</v>
       </c>
       <c r="D12">
-        <v>0.9682852734976164</v>
+        <v>0.9682852734976169</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9446007996418273</v>
+        <v>0.9446007996418283</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.020797187905482</v>
       </c>
       <c r="J12">
-        <v>0.9677581014958834</v>
+        <v>0.9677581014958841</v>
       </c>
       <c r="K12">
-        <v>0.9840463894643451</v>
+        <v>0.9840463894643459</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9608723161801488</v>
+        <v>0.9608723161801499</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9355665032348022</v>
+        <v>0.9355665032348016</v>
       </c>
       <c r="D13">
-        <v>0.9687674146614239</v>
+        <v>0.9687674146614234</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9452494688617163</v>
+        <v>0.9452494688617158</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.021037066722528</v>
       </c>
       <c r="J13">
-        <v>0.9682686355888822</v>
+        <v>0.9682686355888818</v>
       </c>
       <c r="K13">
-        <v>0.9844723419830038</v>
+        <v>0.9844723419830035</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.9614586886030253</v>
+        <v>0.9614586886030249</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9376722510420604</v>
+        <v>0.9376722510420613</v>
       </c>
       <c r="D14">
-        <v>0.970335906524103</v>
+        <v>0.9703359065241036</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.947359570787958</v>
+        <v>0.9473595707879584</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021816773121546</v>
+        <v>1.021816773121547</v>
       </c>
       <c r="J14">
-        <v>0.9699289772848095</v>
+        <v>0.9699289772848104</v>
       </c>
       <c r="K14">
-        <v>0.9858575346382377</v>
+        <v>0.9858575346382383</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9633658916493393</v>
+        <v>0.9633658916493399</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9389579056704612</v>
+        <v>0.9389579056704631</v>
       </c>
       <c r="D15">
-        <v>0.9712938336379311</v>
+        <v>0.9712938336379328</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9486481815624423</v>
+        <v>0.9486481815624443</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.022292459148366</v>
       </c>
       <c r="J15">
-        <v>0.9709426105644768</v>
+        <v>0.9709426105644788</v>
       </c>
       <c r="K15">
-        <v>0.9867031304188609</v>
+        <v>0.9867031304188627</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9645304039991801</v>
+        <v>0.964530403999182</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.946270352611293</v>
+        <v>0.946270352611294</v>
       </c>
       <c r="D16">
-        <v>0.9767462783854356</v>
+        <v>0.9767462783854364</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017256</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9559817778418759</v>
+        <v>0.9559817778418763</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.024992468095512</v>
       </c>
       <c r="J16">
-        <v>0.9767065016846087</v>
+        <v>0.9767065016846095</v>
       </c>
       <c r="K16">
-        <v>0.9915105187624557</v>
+        <v>0.9915105187624563</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175714</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9711548596452829</v>
+        <v>0.9711548596452834</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9507160615087155</v>
+        <v>0.9507160615087161</v>
       </c>
       <c r="D17">
-        <v>0.9800643243287428</v>
+        <v>0.9800643243287434</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855667</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9604439963840943</v>
+        <v>0.9604439963840945</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.026628964315202</v>
       </c>
       <c r="J17">
-        <v>0.9802093805323518</v>
+        <v>0.9802093805323523</v>
       </c>
       <c r="K17">
-        <v>0.9944311665987779</v>
+        <v>0.9944311665987785</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9751830522028515</v>
+        <v>0.975183052202852</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.953261601770917</v>
+        <v>0.9532616017709168</v>
       </c>
       <c r="D18">
-        <v>0.9819651837065489</v>
+        <v>0.9819651837065488</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215686</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9630002523077091</v>
+        <v>0.9630002523077088</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,7 +1047,7 @@
         <v>1.027564135870342</v>
       </c>
       <c r="J18">
-        <v>0.9822145220927714</v>
+        <v>0.9822145220927709</v>
       </c>
       <c r="K18">
         <v>0.9961026565572186</v>
@@ -1056,7 +1056,7 @@
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9774897491121596</v>
+        <v>0.9774897491121594</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9541217881067899</v>
+        <v>0.9541217881067895</v>
       </c>
       <c r="D19">
-        <v>0.9826076781049375</v>
+        <v>0.9826076781049374</v>
       </c>
       <c r="E19">
-        <v>0.9397594814680089</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>0.9638642694076577</v>
+        <v>0.9638642694076571</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027879827552119</v>
+        <v>1.02787982755212</v>
       </c>
       <c r="J19">
         <v>0.9828919989423007</v>
       </c>
       <c r="K19">
-        <v>0.9966673376630129</v>
+        <v>0.996667337663013</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9782692583530588</v>
+        <v>0.9782692583530583</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9502440695853859</v>
+        <v>0.950244069585383</v>
       </c>
       <c r="D20">
-        <v>0.9797119470127361</v>
+        <v>0.9797119470127331</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.9599701190697814</v>
+        <v>0.959970119069779</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026455413276989</v>
+        <v>1.026455413276987</v>
       </c>
       <c r="J20">
-        <v>0.9798375429350996</v>
+        <v>0.9798375429350967</v>
       </c>
       <c r="K20">
-        <v>0.9941211715703339</v>
+        <v>0.9941211715703314</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.9747553631235</v>
+        <v>0.9747553631234975</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1146,13 +1146,13 @@
         <v>0.9370546346413794</v>
       </c>
       <c r="D21">
-        <v>0.9698758054904477</v>
+        <v>0.9698758054904476</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.94674061465987</v>
+        <v>0.9467406146598704</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.021588160003662</v>
       </c>
       <c r="J21">
-        <v>0.969442015092602</v>
+        <v>0.9694420150926019</v>
       </c>
       <c r="K21">
-        <v>0.9854512833338147</v>
+        <v>0.9854512833338149</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981065</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>0.9628064917246233</v>
+        <v>0.9628064917246236</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9282567494740395</v>
+        <v>0.9282567494740382</v>
       </c>
       <c r="D22">
-        <v>0.9633274562101012</v>
+        <v>0.9633274562101</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.9379292600317781</v>
+        <v>0.9379292600317775</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.018325144094759</v>
+        <v>1.018325144094758</v>
       </c>
       <c r="J22">
-        <v>0.9625039823054014</v>
+        <v>0.9625039823054002</v>
       </c>
       <c r="K22">
-        <v>0.9796621733943316</v>
+        <v>0.9796621733943307</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.9548394896617151</v>
+        <v>0.9548394896617144</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9329727722074603</v>
+        <v>0.9329727722074609</v>
       </c>
       <c r="D23">
-        <v>0.9668362774732319</v>
+        <v>0.9668362774732324</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.9426512029526475</v>
+        <v>0.9426512029526481</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020075703879263</v>
+        <v>1.020075703879264</v>
       </c>
       <c r="J23">
-        <v>0.9662233250088104</v>
+        <v>0.9662233250088108</v>
       </c>
       <c r="K23">
-        <v>0.9827658215744878</v>
+        <v>0.9827658215744882</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285315</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.9591097420759467</v>
+        <v>0.9591097420759472</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.950457488624406</v>
+        <v>0.9504574886244075</v>
       </c>
       <c r="D24">
-        <v>0.9798712772233923</v>
+        <v>0.9798712772233934</v>
       </c>
       <c r="E24">
         <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>0.9601843867000742</v>
+        <v>0.9601843867000752</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026533893084999</v>
+        <v>1.026533893085</v>
       </c>
       <c r="J24">
-        <v>0.9800056772472273</v>
+        <v>0.9800056772472288</v>
       </c>
       <c r="K24">
-        <v>0.9942613435943112</v>
+        <v>0.9942613435943125</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442451</v>
+        <v>0.9533716596442449</v>
       </c>
       <c r="M24">
-        <v>0.9749487492194951</v>
+        <v>0.9749487492194961</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9689031318617602</v>
+        <v>0.9689031318617581</v>
       </c>
       <c r="D25">
-        <v>0.9936594134101667</v>
+        <v>0.9936594134101652</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717734</v>
+        <v>0.9463835801717733</v>
       </c>
       <c r="F25">
-        <v>0.9787283929594344</v>
+        <v>0.9787283929594325</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.033276501457838</v>
       </c>
       <c r="J25">
-        <v>0.9945243445705986</v>
+        <v>0.9945243445705965</v>
       </c>
       <c r="K25">
-        <v>1.006356962776781</v>
+        <v>1.006356962776779</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005612</v>
+        <v>0.9598754494005611</v>
       </c>
       <c r="M25">
-        <v>0.9916661498199468</v>
+        <v>0.9916661498199448</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_12/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9824310484277418</v>
+        <v>0.9855999711268121</v>
       </c>
       <c r="D2">
-        <v>1.003788880292267</v>
+        <v>1.00619627724905</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9923614248563795</v>
+        <v>0.9950049088948664</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038160522569664</v>
+        <v>1.039457050167616</v>
       </c>
       <c r="J2">
-        <v>1.00515024988671</v>
+        <v>1.008220083948111</v>
       </c>
       <c r="K2">
-        <v>1.015195681170753</v>
+        <v>1.017569957814505</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.003928213025278</v>
+        <v>1.006534274731891</v>
+      </c>
+      <c r="N2">
+        <v>1.009651872111777</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9916818082491617</v>
+        <v>0.9948197553058662</v>
       </c>
       <c r="D3">
-        <v>1.010721068557634</v>
+        <v>1.013108489046586</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.001701336793422</v>
+        <v>1.004313085650699</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04146319845684</v>
+        <v>1.042750029876718</v>
       </c>
       <c r="J3">
-        <v>1.012401833075899</v>
+        <v>1.015452642149549</v>
       </c>
       <c r="K3">
-        <v>1.021218584794086</v>
+        <v>1.023576347358927</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.01231249488487</v>
+        <v>1.014891075604317</v>
+      </c>
+      <c r="N3">
+        <v>1.016894701375447</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9974339758656182</v>
+        <v>1.000554219089752</v>
       </c>
       <c r="D4">
-        <v>1.015032757926887</v>
+        <v>1.017408842404178</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.007516452685208</v>
+        <v>1.010109935123522</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043499072592819</v>
+        <v>1.044780487872214</v>
       </c>
       <c r="J4">
-        <v>1.016903549347535</v>
+        <v>1.019943758503513</v>
       </c>
       <c r="K4">
-        <v>1.024953074226732</v>
+        <v>1.027301602084721</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.017524999380686</v>
+        <v>1.020087854463858</v>
+      </c>
+      <c r="N4">
+        <v>1.021392195629772</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9998002410245569</v>
+        <v>1.002913537644258</v>
       </c>
       <c r="D5">
-        <v>1.016806579877736</v>
+        <v>1.019178236787536</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.009910355685304</v>
+        <v>1.012496640351124</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044332228259943</v>
+        <v>1.045611549528068</v>
       </c>
       <c r="J5">
-        <v>1.018753576745806</v>
+        <v>1.021789692235958</v>
       </c>
       <c r="K5">
-        <v>1.026486685889618</v>
+        <v>1.028831639860452</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.019668987082629</v>
+        <v>1.022225667797243</v>
+      </c>
+      <c r="N5">
+        <v>1.023240750799849</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000194609113439</v>
+        <v>1.003306766793007</v>
       </c>
       <c r="D6">
-        <v>1.017102212578719</v>
+        <v>1.019473144797637</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.010309430901143</v>
+        <v>1.012894533656088</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044470826507057</v>
+        <v>1.045749806324519</v>
       </c>
       <c r="J6">
-        <v>1.019061796876663</v>
+        <v>1.02209724506083</v>
       </c>
       <c r="K6">
-        <v>1.026742123357997</v>
+        <v>1.029086494326859</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.020026291766835</v>
+        <v>1.022581959937568</v>
+      </c>
+      <c r="N6">
+        <v>1.023548740385009</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9974657931793653</v>
+        <v>1.000585941710048</v>
       </c>
       <c r="D7">
-        <v>1.015056608834655</v>
+        <v>1.01743263287316</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.007548634786219</v>
+        <v>1.010142019229744</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043510292703023</v>
+        <v>1.044791679310243</v>
       </c>
       <c r="J7">
-        <v>1.016928432611398</v>
+        <v>1.019968585699317</v>
       </c>
       <c r="K7">
-        <v>1.024973706112448</v>
+        <v>1.027322185050963</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.017553829081934</v>
+        <v>1.020116600013681</v>
+      </c>
+      <c r="N7">
+        <v>1.021417058083042</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9856083333272677</v>
+        <v>0.9887662611553829</v>
       </c>
       <c r="D8">
-        <v>1.006169455243402</v>
+        <v>1.008569743810626</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9955676946409419</v>
+        <v>0.9981999434143672</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039298583727476</v>
+        <v>1.040591642036417</v>
       </c>
       <c r="J8">
-        <v>1.007642406428533</v>
+        <v>1.010705425806596</v>
       </c>
       <c r="K8">
-        <v>1.017266500849423</v>
+        <v>1.019634870380203</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.006808040946494</v>
+        <v>1.009404352945616</v>
+      </c>
+      <c r="N8">
+        <v>1.012140743440774</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9627156356379744</v>
+        <v>0.9659616476487899</v>
       </c>
       <c r="D9">
-        <v>0.9890307220156302</v>
+        <v>0.9914883359196038</v>
       </c>
       <c r="E9">
         <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.9725022949404921</v>
+        <v>0.9752238593423161</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031024268527318</v>
+        <v>1.032345726632028</v>
       </c>
       <c r="J9">
-        <v>0.9896573658297859</v>
+        <v>0.9927764226268089</v>
       </c>
       <c r="K9">
-        <v>1.002304311036304</v>
+        <v>1.004721035152656</v>
       </c>
       <c r="L9">
         <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>0.9860578354333904</v>
+        <v>0.9887321234460502</v>
+      </c>
+      <c r="N9">
+        <v>0.9941862790199865</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9457612769657102</v>
+        <v>0.9490870753917774</v>
       </c>
       <c r="D10">
-        <v>0.9763664780638328</v>
+        <v>0.9788764864956465</v>
       </c>
       <c r="E10">
         <v>0.9361465105547282</v>
       </c>
       <c r="F10">
-        <v>0.9554709891299236</v>
+        <v>0.9582724480832361</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024804821850724</v>
+        <v>1.026152796790181</v>
       </c>
       <c r="J10">
-        <v>0.9763053175525392</v>
+        <v>0.9794771824513742</v>
       </c>
       <c r="K10">
-        <v>0.9911759690508276</v>
+        <v>0.9936379018023906</v>
       </c>
       <c r="L10">
         <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>0.9706936275831062</v>
+        <v>0.9734383185567566</v>
+      </c>
+      <c r="N10">
+        <v>0.9808681523980581</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9379183475830331</v>
+        <v>0.9412858275309199</v>
       </c>
       <c r="D11">
-        <v>0.9705192533999849</v>
+        <v>0.9730567289728302</v>
       </c>
       <c r="E11">
         <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9476062156801059</v>
+        <v>0.9504491490711576</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021907849109337</v>
+        <v>1.02326985506846</v>
       </c>
       <c r="J11">
-        <v>0.9701230091522457</v>
+        <v>0.9733229839960933</v>
       </c>
       <c r="K11">
-        <v>0.9860194040214136</v>
+        <v>0.9885052940445064</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9635887949528431</v>
+        <v>0.9663701939765504</v>
+      </c>
+      <c r="N11">
+        <v>0.9747052142750746</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9349190514534219</v>
+        <v>0.9383033392942886</v>
       </c>
       <c r="D12">
-        <v>0.9682852734976169</v>
+        <v>0.9708338377859956</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9446007996418283</v>
+        <v>0.947460415595043</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020797187905482</v>
+        <v>1.022164877635246</v>
       </c>
       <c r="J12">
-        <v>0.9677581014958841</v>
+        <v>0.9709694932679612</v>
       </c>
       <c r="K12">
-        <v>0.9840463894643459</v>
+        <v>0.9865419915447856</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9608723161801499</v>
+        <v>0.9636685052078851</v>
+      </c>
+      <c r="N12">
+        <v>0.9723483813201592</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9355665032348016</v>
+        <v>0.938947120807184</v>
       </c>
       <c r="D13">
-        <v>0.9687674146614234</v>
+        <v>0.9713135570142463</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9452494688617158</v>
+        <v>0.9481054438224649</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021037066722528</v>
+        <v>1.022403514172492</v>
       </c>
       <c r="J13">
-        <v>0.9682686355888818</v>
+        <v>0.9714775305849996</v>
       </c>
       <c r="K13">
-        <v>0.9844723419830035</v>
+        <v>0.9869658209783403</v>
       </c>
       <c r="L13">
         <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.9614586886030249</v>
+        <v>0.9642516485803622</v>
+      </c>
+      <c r="N13">
+        <v>0.9728571401084606</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9376722510420613</v>
+        <v>0.9410410915473437</v>
       </c>
       <c r="D14">
-        <v>0.9703359065241036</v>
+        <v>0.9728742794586748</v>
       </c>
       <c r="E14">
         <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9473595707879584</v>
+        <v>0.9502038554353766</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021816773121547</v>
+        <v>1.023179238660484</v>
       </c>
       <c r="J14">
-        <v>0.9699289772848104</v>
+        <v>0.9731298746578874</v>
       </c>
       <c r="K14">
-        <v>0.9858575346382383</v>
+        <v>0.9883442098052889</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9633658916493399</v>
+        <v>0.9661484881425506</v>
+      </c>
+      <c r="N14">
+        <v>0.9745118306994583</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9389579056704631</v>
+        <v>0.9423196744933192</v>
       </c>
       <c r="D15">
-        <v>0.9712938336379328</v>
+        <v>0.9738275429058193</v>
       </c>
       <c r="E15">
         <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9486481815624443</v>
+        <v>0.9514854412011664</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022292459148366</v>
+        <v>1.023652536975411</v>
       </c>
       <c r="J15">
-        <v>0.9709426105644788</v>
+        <v>0.9741387162216699</v>
       </c>
       <c r="K15">
-        <v>0.9867031304188627</v>
+        <v>0.9891857267303795</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.964530403999182</v>
+        <v>0.9673067759823124</v>
+      </c>
+      <c r="N15">
+        <v>0.9755221049339772</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.946270352611294</v>
+        <v>0.9495935550465407</v>
       </c>
       <c r="D16">
-        <v>0.9767462783854364</v>
+        <v>0.9792545778568968</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9559817778418763</v>
+        <v>0.9587806483937652</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024992468095512</v>
+        <v>1.026339572560083</v>
       </c>
       <c r="J16">
-        <v>0.9767065016846095</v>
+        <v>0.9798766262793018</v>
       </c>
       <c r="K16">
-        <v>0.9915105187624563</v>
+        <v>0.9939709660643512</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9711548596452834</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9738972628663142</v>
+      </c>
+      <c r="N16">
+        <v>0.9812681634820385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9507160615087161</v>
+        <v>0.9540171389200282</v>
       </c>
       <c r="D17">
-        <v>0.9800643243287434</v>
+        <v>0.982558068536045</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9604439963840945</v>
+        <v>0.9632207788533717</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026628964315202</v>
+        <v>1.02796866842506</v>
       </c>
       <c r="J17">
-        <v>0.9802093805323523</v>
+        <v>0.9833647277631381</v>
       </c>
       <c r="K17">
-        <v>0.9944311665987785</v>
+        <v>0.9968789892461959</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.975183052202852</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9779059498172541</v>
+      </c>
+      <c r="N17">
+        <v>0.9847612184700726</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9532616017709168</v>
+        <v>0.9565504417910977</v>
       </c>
       <c r="D18">
-        <v>0.9819651837065488</v>
+        <v>0.9844508856934227</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9630002523077088</v>
+        <v>0.9657647952706653</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027564135870342</v>
+        <v>1.028899762227269</v>
       </c>
       <c r="J18">
-        <v>0.9822145220927709</v>
+        <v>0.9853617406819739</v>
       </c>
       <c r="K18">
-        <v>0.9961026565572186</v>
+        <v>0.9985435256928616</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9774897491121594</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9802018520917406</v>
+      </c>
+      <c r="N18">
+        <v>0.9867610673763137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9541217881067895</v>
+        <v>0.9574065622201166</v>
       </c>
       <c r="D19">
-        <v>0.9826076781049374</v>
+        <v>0.9850907094950909</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>0.9638642694076571</v>
+        <v>0.9666247419909398</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02787982755212</v>
+        <v>1.029214101702355</v>
       </c>
       <c r="J19">
-        <v>0.9828919989423007</v>
+        <v>0.9860365242798452</v>
       </c>
       <c r="K19">
-        <v>0.996667337663013</v>
+        <v>0.9991059014230318</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9782692583530583</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9809777738004591</v>
+      </c>
+      <c r="N19">
+        <v>0.9874368092442924</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.950244069585383</v>
+        <v>0.9535474501353909</v>
       </c>
       <c r="D20">
-        <v>0.9797119470127331</v>
+        <v>0.9822072055044802</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.959970119069779</v>
+        <v>0.9627492032259227</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026455413276987</v>
+        <v>1.027795886119339</v>
       </c>
       <c r="J20">
-        <v>0.9798375429350967</v>
+        <v>0.9829944236957658</v>
       </c>
       <c r="K20">
-        <v>0.9941211715703314</v>
+        <v>0.996570305315843</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.9747553631234975</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9774802918528044</v>
+      </c>
+      <c r="N20">
+        <v>0.9843903885284502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9370546346413794</v>
+        <v>0.9404269041777811</v>
       </c>
       <c r="D21">
-        <v>0.9698758054904476</v>
+        <v>0.9724164402530859</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9467406146598704</v>
+        <v>0.9495883042270938</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021588160003662</v>
+        <v>1.022951784233171</v>
       </c>
       <c r="J21">
-        <v>0.9694420150926019</v>
+        <v>0.9726452388333381</v>
       </c>
       <c r="K21">
-        <v>0.9854512833338149</v>
+        <v>0.9879399381243935</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>0.9628064917246236</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9655921060150198</v>
+      </c>
+      <c r="N21">
+        <v>0.9740265066364496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9282567494740382</v>
+        <v>0.9316801907820158</v>
       </c>
       <c r="D22">
-        <v>0.9633274562101</v>
+        <v>0.9659018733886091</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.9379292600317775</v>
+        <v>0.9408276551809865</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.018325144094758</v>
+        <v>1.019706121967037</v>
       </c>
       <c r="J22">
-        <v>0.9625039823054002</v>
+        <v>0.9657421289670441</v>
       </c>
       <c r="K22">
-        <v>0.9796621733943307</v>
+        <v>0.982180497623914</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.9548394896617144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9576701060264402</v>
+      </c>
+      <c r="N22">
+        <v>0.9671135935623478</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9329727722074609</v>
+        <v>0.9363682345485471</v>
       </c>
       <c r="D23">
-        <v>0.9668362774732324</v>
+        <v>0.9693922173159484</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.9426512029526481</v>
+        <v>0.9455218979340021</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020075703879264</v>
+        <v>1.021447179576144</v>
       </c>
       <c r="J23">
-        <v>0.9662233250088108</v>
+        <v>0.9694423307601712</v>
       </c>
       <c r="K23">
-        <v>0.9827658215744882</v>
+        <v>0.9852678951913245</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.9591097420759472</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9619157603179769</v>
+      </c>
+      <c r="N23">
+        <v>0.9708190500664402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9504574886244075</v>
+        <v>0.95375982643996</v>
       </c>
       <c r="D24">
-        <v>0.9798712772233934</v>
+        <v>0.9823658501040691</v>
       </c>
       <c r="E24">
         <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>0.9601843867000752</v>
+        <v>0.9629624288501667</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026533893085</v>
+        <v>1.027874017838868</v>
       </c>
       <c r="J24">
-        <v>0.9800056772472288</v>
+        <v>0.9831618635687945</v>
       </c>
       <c r="K24">
-        <v>0.9942613435943125</v>
+        <v>0.9967098836544941</v>
       </c>
       <c r="L24">
         <v>0.9533716596442449</v>
       </c>
       <c r="M24">
-        <v>0.9749487492194961</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9776727583907515</v>
+      </c>
+      <c r="N24">
+        <v>0.9845580661853039</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9689031318617581</v>
+        <v>0.9721232413278441</v>
       </c>
       <c r="D25">
-        <v>0.9936594134101652</v>
+        <v>0.9961000946178823</v>
       </c>
       <c r="E25">
         <v>0.9463835801717733</v>
       </c>
       <c r="F25">
-        <v>0.9787283929594325</v>
+        <v>0.981423839312773</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033276501457838</v>
+        <v>1.0345894851849</v>
       </c>
       <c r="J25">
-        <v>0.9945243445705965</v>
+        <v>0.9976266206164613</v>
       </c>
       <c r="K25">
-        <v>1.006356962776779</v>
+        <v>1.008759254783584</v>
       </c>
       <c r="L25">
         <v>0.9598754494005611</v>
       </c>
       <c r="M25">
-        <v>0.9916661498199448</v>
+        <v>0.9943175377713889</v>
+      </c>
+      <c r="N25">
+        <v>0.9990433648471093</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_12/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9855999711268121</v>
+        <v>0.984912945803774</v>
       </c>
       <c r="D2">
-        <v>1.00619627724905</v>
+        <v>1.006205084409962</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9950049088948664</v>
+        <v>0.9609486945036033</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039457050167616</v>
+        <v>1.038323315227775</v>
       </c>
       <c r="J2">
-        <v>1.008220083948111</v>
+        <v>1.007554466346105</v>
       </c>
       <c r="K2">
-        <v>1.017569957814505</v>
+        <v>1.017578644175418</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.006534274731891</v>
+        <v>0.9729802864221437</v>
       </c>
       <c r="N2">
-        <v>1.009651872111777</v>
+        <v>1.008985309256429</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9948197553058662</v>
+        <v>0.9935215262314356</v>
       </c>
       <c r="D3">
-        <v>1.013108489046586</v>
+        <v>1.012879469259911</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.004313085650699</v>
+        <v>0.97252068886114</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042750029876718</v>
+        <v>1.041484247992508</v>
       </c>
       <c r="J3">
-        <v>1.015452642149549</v>
+        <v>1.014190372657908</v>
       </c>
       <c r="K3">
-        <v>1.023576347358927</v>
+        <v>1.023350165039555</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.014891075604317</v>
+        <v>0.9835176808833499</v>
       </c>
       <c r="N3">
-        <v>1.016894701375447</v>
+        <v>1.015630639316344</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.000554219089752</v>
+        <v>0.9988713799653739</v>
       </c>
       <c r="D4">
-        <v>1.017408842404178</v>
+        <v>1.017028671140315</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.010109935123522</v>
+        <v>0.979701843604178</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044780487872214</v>
+        <v>1.043430631647604</v>
       </c>
       <c r="J4">
-        <v>1.019943758503513</v>
+        <v>1.018304000086253</v>
       </c>
       <c r="K4">
-        <v>1.027301602084721</v>
+        <v>1.026925829161791</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.020087854463858</v>
+        <v>0.9900515843487766</v>
       </c>
       <c r="N4">
-        <v>1.021392195629772</v>
+        <v>1.019750108567476</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.002913537644258</v>
+        <v>1.001071496315312</v>
       </c>
       <c r="D5">
-        <v>1.019178236787536</v>
+        <v>1.018735213771304</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.012496640351124</v>
+        <v>0.9826532493147084</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045611549528068</v>
+        <v>1.044226699872729</v>
       </c>
       <c r="J5">
-        <v>1.021789692235958</v>
+        <v>1.019993238440519</v>
       </c>
       <c r="K5">
-        <v>1.028831639860452</v>
+        <v>1.028393593294729</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>1.022225667797243</v>
+        <v>0.9927356584166503</v>
       </c>
       <c r="N5">
-        <v>1.023240750799849</v>
+        <v>1.021441745833964</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003306766793007</v>
+        <v>1.001438137076972</v>
       </c>
       <c r="D6">
-        <v>1.019473144797637</v>
+        <v>1.019019609955237</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>1.012894533656088</v>
+        <v>0.9831449991996126</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045749806324519</v>
+        <v>1.04435910218371</v>
       </c>
       <c r="J6">
-        <v>1.02209724506083</v>
+        <v>1.020274596919962</v>
       </c>
       <c r="K6">
-        <v>1.029086494326859</v>
+        <v>1.028638028609303</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>1.022581959937568</v>
+        <v>0.9931827875754944</v>
       </c>
       <c r="N6">
-        <v>1.023548740385009</v>
+        <v>1.02172350387472</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.000585941710048</v>
+        <v>0.9989009657019775</v>
       </c>
       <c r="D7">
-        <v>1.01743263287316</v>
+        <v>1.017051619028542</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
-        <v>1.010142019229744</v>
+        <v>0.9797415386490873</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044791679310243</v>
+        <v>1.043441354098825</v>
       </c>
       <c r="J7">
-        <v>1.019968585699317</v>
+        <v>1.018326725730614</v>
       </c>
       <c r="K7">
-        <v>1.027322185050963</v>
+        <v>1.026945577570358</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>1.020116600013681</v>
+        <v>0.9900876892048555</v>
       </c>
       <c r="N7">
-        <v>1.021417058083042</v>
+        <v>1.019772866484859</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9887662611553829</v>
+        <v>0.987870356622086</v>
       </c>
       <c r="D8">
-        <v>1.008569743810626</v>
+        <v>1.008497639141482</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>0.9981999434143672</v>
+        <v>0.9649267903801509</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040591642036417</v>
+        <v>1.039413016484563</v>
       </c>
       <c r="J8">
-        <v>1.010705425806596</v>
+        <v>1.009836361989082</v>
       </c>
       <c r="K8">
-        <v>1.019634870380203</v>
+        <v>1.019563721781165</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.009404352945616</v>
+        <v>0.9766037857286143</v>
       </c>
       <c r="N8">
-        <v>1.012140743440774</v>
+        <v>1.011270445452956</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9659616476487899</v>
+        <v>0.9665438907338723</v>
       </c>
       <c r="D9">
-        <v>0.9914883359196038</v>
+        <v>0.9919781543328532</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9435740419923924</v>
       </c>
       <c r="F9">
-        <v>0.9752238593423161</v>
+        <v>0.936160710730889</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032345726632028</v>
+        <v>1.03147809556503</v>
       </c>
       <c r="J9">
-        <v>0.9927764226268089</v>
+        <v>0.9933360209423743</v>
       </c>
       <c r="K9">
-        <v>1.004721035152656</v>
+        <v>1.005202735136683</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9576541208832517</v>
       </c>
       <c r="M9">
-        <v>0.9887321234460502</v>
+        <v>0.9503820458702997</v>
       </c>
       <c r="N9">
-        <v>0.9941862790199865</v>
+        <v>0.9947466720293462</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9490870753917774</v>
+        <v>0.9507168549953529</v>
       </c>
       <c r="D10">
-        <v>0.9788764864956465</v>
+        <v>0.9797435357385262</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9361465105547164</v>
       </c>
       <c r="F10">
-        <v>0.9582724480832361</v>
+        <v>0.9146600458465395</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026152796790181</v>
+        <v>1.025492802572434</v>
       </c>
       <c r="J10">
-        <v>0.9794771824513742</v>
+        <v>0.9810320923942042</v>
       </c>
       <c r="K10">
-        <v>0.9936379018023906</v>
+        <v>0.9944884188121298</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689266</v>
       </c>
       <c r="M10">
-        <v>0.9734383185567566</v>
+        <v>0.9307623643665016</v>
       </c>
       <c r="N10">
-        <v>0.9808681523980581</v>
+        <v>0.9824252704913575</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9412858275309199</v>
+        <v>0.943382930084392</v>
       </c>
       <c r="D11">
-        <v>0.9730567289728302</v>
+        <v>0.9740835248494334</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9504491490711576</v>
+        <v>0.9046401611240568</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02326985506846</v>
+        <v>1.022697439902074</v>
       </c>
       <c r="J11">
-        <v>0.9733229839960933</v>
+        <v>0.9753166449717902</v>
       </c>
       <c r="K11">
-        <v>0.9885052940445064</v>
+        <v>0.9895113162810749</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>0.9663701939765504</v>
+        <v>0.9216162143431729</v>
       </c>
       <c r="N11">
-        <v>0.9747052142750746</v>
+        <v>0.9767017064780327</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9383033392942886</v>
+        <v>0.9405757722222668</v>
       </c>
       <c r="D12">
-        <v>0.9708338377859956</v>
+        <v>0.9719188069076863</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.947460415595043</v>
+        <v>0.9007940547271437</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022164877635246</v>
+        <v>1.021624292230816</v>
       </c>
       <c r="J12">
-        <v>0.9709694932679612</v>
+        <v>0.9731268428220444</v>
       </c>
       <c r="K12">
-        <v>0.9865419915447856</v>
+        <v>0.9876045249880998</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>0.9636685052078851</v>
+        <v>0.9181052970401649</v>
       </c>
       <c r="N12">
-        <v>0.9723483813201592</v>
+        <v>0.9745087945580607</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.938947120807184</v>
+        <v>0.9411818740748422</v>
       </c>
       <c r="D13">
-        <v>0.9713135570142463</v>
+        <v>0.9723861138863048</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9318723593368228</v>
       </c>
       <c r="F13">
-        <v>0.9481054438224649</v>
+        <v>0.9016250117027563</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022403514172492</v>
+        <v>1.021856140435072</v>
       </c>
       <c r="J13">
-        <v>0.9714775305849996</v>
+        <v>0.9735997464849713</v>
       </c>
       <c r="K13">
-        <v>0.9869658209783403</v>
+        <v>0.988016302455101</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>0.9642516485803622</v>
+        <v>0.9188638400801183</v>
       </c>
       <c r="N13">
-        <v>0.9728571401084606</v>
+        <v>0.9749823697984319</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9410410915473437</v>
+        <v>0.9431526542269778</v>
       </c>
       <c r="D14">
-        <v>0.9728742794586748</v>
+        <v>0.9739059124169159</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.9502038554353766</v>
+        <v>0.9043248932948227</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023179238660484</v>
+        <v>1.022609471500548</v>
       </c>
       <c r="J14">
-        <v>0.9731298746578874</v>
+        <v>0.9751370552394059</v>
       </c>
       <c r="K14">
-        <v>0.9883442098052889</v>
+        <v>0.989354933455362</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>0.9661484881425506</v>
+        <v>0.9213284244720352</v>
       </c>
       <c r="N14">
-        <v>0.9745118306994583</v>
+        <v>0.9765218617076297</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9423196744933192</v>
+        <v>0.9443555523662889</v>
       </c>
       <c r="D15">
-        <v>0.9738275429058193</v>
+        <v>0.9748337831940496</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.9514854412011664</v>
+        <v>0.9059713117656257</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023652536975411</v>
+        <v>1.023068866200817</v>
       </c>
       <c r="J15">
-        <v>0.9741387162216699</v>
+        <v>0.9760750962298828</v>
       </c>
       <c r="K15">
-        <v>0.9891857267303795</v>
+        <v>0.9901717649433561</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9673067759823124</v>
+        <v>0.9228313390298404</v>
       </c>
       <c r="N15">
-        <v>0.9755221049339772</v>
+        <v>0.9774612348239073</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9495935550465407</v>
+        <v>0.9511925882593851</v>
       </c>
       <c r="D16">
-        <v>0.9792545778568968</v>
+        <v>0.9801109028311286</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017257</v>
       </c>
       <c r="F16">
-        <v>0.9587806483937652</v>
+        <v>0.915308665138838</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026339572560083</v>
+        <v>1.025673690612317</v>
       </c>
       <c r="J16">
-        <v>0.9798766262793018</v>
+        <v>0.9814025493315548</v>
       </c>
       <c r="K16">
-        <v>0.9939709660643512</v>
+        <v>0.9948110277930643</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9738972628663142</v>
+        <v>0.9313543840498681</v>
       </c>
       <c r="N16">
-        <v>0.9812681634820385</v>
+        <v>0.9827962535200513</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9540171389200282</v>
+        <v>0.955345682285641</v>
       </c>
       <c r="D17">
-        <v>0.982558068536045</v>
+        <v>0.9833190388547546</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>0.9632207788533717</v>
+        <v>0.920964482829749</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02796866842506</v>
+        <v>1.027250393953349</v>
       </c>
       <c r="J17">
-        <v>0.9833647277631381</v>
+        <v>0.9846350270042298</v>
       </c>
       <c r="K17">
-        <v>0.9968789892461959</v>
+        <v>0.9976260069216677</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9779059498172541</v>
+        <v>0.93651637035612</v>
       </c>
       <c r="N17">
-        <v>0.9847612184700726</v>
+        <v>0.9860333216817918</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9565504417910977</v>
+        <v>0.9577225701962706</v>
       </c>
       <c r="D18">
-        <v>0.9844508856934227</v>
+        <v>0.9851559446320781</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9657647952706653</v>
+        <v>0.9241963074777888</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028899762227269</v>
+        <v>1.028150733902365</v>
       </c>
       <c r="J18">
-        <v>0.9853617406819739</v>
+        <v>0.9864837309552484</v>
       </c>
       <c r="K18">
-        <v>0.9985435256928616</v>
+        <v>0.9992359214896499</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>0.9802018520917406</v>
+        <v>0.9394657310181591</v>
       </c>
       <c r="N18">
-        <v>0.9867610673763137</v>
+        <v>0.9878846510044705</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9574065622201166</v>
+        <v>0.9585255928801818</v>
       </c>
       <c r="D19">
-        <v>0.9850907094950909</v>
+        <v>0.9857766688706193</v>
       </c>
       <c r="E19">
-        <v>0.939759481468009</v>
+        <v>0.9397594814680091</v>
       </c>
       <c r="F19">
-        <v>0.9666247419909398</v>
+        <v>0.9252873611022518</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029214101702355</v>
+        <v>1.028454562328918</v>
       </c>
       <c r="J19">
-        <v>0.9860365242798452</v>
+        <v>0.9871080887774631</v>
       </c>
       <c r="K19">
-        <v>0.9991059014230318</v>
+        <v>0.9997796274864048</v>
       </c>
       <c r="L19">
-        <v>0.954635249381271</v>
+        <v>0.9546352493812711</v>
       </c>
       <c r="M19">
-        <v>0.9809777738004591</v>
+        <v>0.9404613721020177</v>
       </c>
       <c r="N19">
-        <v>0.9874368092442924</v>
+        <v>0.9885098954864076</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9535474501353909</v>
+        <v>0.9549048755675287</v>
       </c>
       <c r="D20">
-        <v>0.9822072055044802</v>
+        <v>0.9829784403247293</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660139</v>
+        <v>0.9380716924660141</v>
       </c>
       <c r="F20">
-        <v>0.9627492032259227</v>
+        <v>0.9203647235359065</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027795886119339</v>
+        <v>1.027083254980987</v>
       </c>
       <c r="J20">
-        <v>0.9829944236957658</v>
+        <v>0.9842920694048509</v>
       </c>
       <c r="K20">
-        <v>0.996570305315843</v>
+        <v>0.9973273456116089</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>0.9774802918528044</v>
+        <v>0.9359690061845117</v>
       </c>
       <c r="N20">
-        <v>0.9843903885284502</v>
+        <v>0.9856898770432844</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9404269041777811</v>
+        <v>0.9425746992241294</v>
       </c>
       <c r="D21">
-        <v>0.9724164402530859</v>
+        <v>0.9734601629775887</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9495883042270938</v>
+        <v>0.9035334392326523</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022951784233171</v>
+        <v>1.022388634412079</v>
       </c>
       <c r="J21">
-        <v>0.9726452388333381</v>
+        <v>0.9746862797795905</v>
       </c>
       <c r="K21">
-        <v>0.9879399381243935</v>
+        <v>0.9889624104779395</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981066</v>
+        <v>0.9488714019981065</v>
       </c>
       <c r="M21">
-        <v>0.9655921060150198</v>
+        <v>0.920605949417062</v>
       </c>
       <c r="N21">
-        <v>0.9740265066364496</v>
+        <v>0.9760704460949564</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9316801907820158</v>
+        <v>0.934334616564707</v>
       </c>
       <c r="D22">
-        <v>0.9659018733886091</v>
+        <v>0.9671096158332592</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.9408276551809865</v>
+        <v>0.8922197174828418</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.019706121967037</v>
+        <v>1.019232582446066</v>
       </c>
       <c r="J22">
-        <v>0.9657421289670441</v>
+        <v>0.9682542422246331</v>
       </c>
       <c r="K22">
-        <v>0.982180497623914</v>
+        <v>0.9833620616284691</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>0.9576701060264402</v>
+        <v>0.9102781839285282</v>
       </c>
       <c r="N22">
-        <v>0.9671135935623478</v>
+        <v>0.969629274308906</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9363682345485471</v>
+        <v>0.9387533584655215</v>
       </c>
       <c r="D23">
-        <v>0.9693922173159484</v>
+        <v>0.9705140007812585</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.9455218979340021</v>
+        <v>0.8982937456293811</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021447179576144</v>
+        <v>1.020926717815349</v>
       </c>
       <c r="J23">
-        <v>0.9694423307601712</v>
+        <v>0.971704609831776</v>
       </c>
       <c r="K23">
-        <v>0.9852678951913245</v>
+        <v>0.986366155613879</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.9619157603179769</v>
+        <v>0.915822871827522</v>
       </c>
       <c r="N23">
-        <v>0.9708190500664402</v>
+        <v>0.9730845418338137</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.95375982643996</v>
+        <v>0.9551041970953013</v>
       </c>
       <c r="D24">
-        <v>0.9823658501040691</v>
+        <v>0.9831324476989598</v>
       </c>
       <c r="E24">
         <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>0.9629624288501667</v>
+        <v>0.9206359350717537</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027874017838868</v>
+        <v>1.027158837296759</v>
       </c>
       <c r="J24">
-        <v>0.9831618635687945</v>
+        <v>0.9844471501080823</v>
       </c>
       <c r="K24">
-        <v>0.9967098836544941</v>
+        <v>0.9974623962006917</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442449</v>
+        <v>0.953371659644245</v>
       </c>
       <c r="M24">
-        <v>0.9776727583907515</v>
+        <v>0.9362165255045675</v>
       </c>
       <c r="N24">
-        <v>0.9845580661853039</v>
+        <v>0.9858451779789021</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9721232413278441</v>
+        <v>0.9723124360856109</v>
       </c>
       <c r="D25">
-        <v>0.9961000946178823</v>
+        <v>0.996443221695395</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717733</v>
+        <v>0.9463835801717732</v>
       </c>
       <c r="F25">
-        <v>0.981423839312773</v>
+        <v>0.9439616120744529</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.0345894851849</v>
+        <v>1.033640847741219</v>
       </c>
       <c r="J25">
-        <v>0.9976266206164613</v>
+        <v>0.9978089262461072</v>
       </c>
       <c r="K25">
-        <v>1.008759254783584</v>
+        <v>1.009097004139382</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005611</v>
+        <v>0.959875449400561</v>
       </c>
       <c r="M25">
-        <v>0.9943175377713889</v>
+        <v>0.9574969591872612</v>
       </c>
       <c r="N25">
-        <v>0.9990433648471093</v>
+        <v>0.9992259293716601</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_12/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.984912945803774</v>
+        <v>0.9882399993939712</v>
       </c>
       <c r="D2">
-        <v>1.006205084409962</v>
+        <v>1.00898824587287</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9609486945036033</v>
+        <v>0.9975263703464169</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038323315227775</v>
+        <v>1.040953208210137</v>
       </c>
       <c r="J2">
-        <v>1.007554466346105</v>
+        <v>1.0107782310703</v>
       </c>
       <c r="K2">
-        <v>1.017578644175418</v>
+        <v>1.020323764451098</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9729802864221437</v>
+        <v>1.009020274672421</v>
       </c>
       <c r="N2">
-        <v>1.008985309256429</v>
+        <v>1.007734980175729</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9935215262314356</v>
+        <v>0.9921602022478749</v>
       </c>
       <c r="D3">
-        <v>1.012879469259911</v>
+        <v>1.011762590453086</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.97252068886114</v>
+        <v>1.00237375687837</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041484247992508</v>
+        <v>1.042018359132515</v>
       </c>
       <c r="J3">
-        <v>1.014190372657908</v>
+        <v>1.012866893893863</v>
       </c>
       <c r="K3">
-        <v>1.023350165039555</v>
+        <v>1.022247146860902</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>0.9835176808833499</v>
+        <v>1.012976354877184</v>
       </c>
       <c r="N3">
-        <v>1.015630639316344</v>
+        <v>1.008423289994632</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9988713799653739</v>
+        <v>0.99464483153788</v>
       </c>
       <c r="D4">
-        <v>1.017028671140315</v>
+        <v>1.013520806838652</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.979701843604178</v>
+        <v>1.005445025466997</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043430631647604</v>
+        <v>1.042678294343608</v>
       </c>
       <c r="J4">
-        <v>1.018304000086253</v>
+        <v>1.014186522199614</v>
       </c>
       <c r="K4">
-        <v>1.026925829161791</v>
+        <v>1.023458741170592</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>0.9900515843487766</v>
+        <v>1.015478175060684</v>
       </c>
       <c r="N4">
-        <v>1.019750108567476</v>
+        <v>1.008858170688205</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001071496315312</v>
+        <v>0.995677320163206</v>
       </c>
       <c r="D5">
-        <v>1.018735213771304</v>
+        <v>1.014251343035104</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>0.9826532493147084</v>
+        <v>1.006721100092691</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044226699872729</v>
+        <v>1.042948844172257</v>
       </c>
       <c r="J5">
-        <v>1.019993238440519</v>
+        <v>1.014733869321959</v>
       </c>
       <c r="K5">
-        <v>1.028393593294729</v>
+        <v>1.023960391258154</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>0.9927356584166503</v>
+        <v>1.016516496108978</v>
       </c>
       <c r="N5">
-        <v>1.021441745833964</v>
+        <v>1.009038547606847</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.001438137076972</v>
+        <v>0.9958499842353371</v>
       </c>
       <c r="D6">
-        <v>1.019019609955237</v>
+        <v>1.014373504472955</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>0.9831449991996126</v>
+        <v>1.006934489405595</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04435910218371</v>
+        <v>1.042993870328951</v>
       </c>
       <c r="J6">
-        <v>1.020274596919962</v>
+        <v>1.014825341744819</v>
       </c>
       <c r="K6">
-        <v>1.028638028609303</v>
+        <v>1.024044174005566</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>0.9931827875754944</v>
+        <v>1.01669005900494</v>
       </c>
       <c r="N6">
-        <v>1.02172350387472</v>
+        <v>1.009068692088333</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9989009657019775</v>
+        <v>0.9946586745312608</v>
       </c>
       <c r="D7">
-        <v>1.017051619028542</v>
+        <v>1.013530601860929</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>0.9797415386490873</v>
+        <v>1.005462135011253</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043441354098825</v>
+        <v>1.042681936343497</v>
       </c>
       <c r="J7">
-        <v>1.018326725730614</v>
+        <v>1.014193864785658</v>
       </c>
       <c r="K7">
-        <v>1.026945577570358</v>
+        <v>1.023465474274008</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>0.9900876892048555</v>
+        <v>1.015492101406854</v>
       </c>
       <c r="N7">
-        <v>1.019772866484859</v>
+        <v>1.008860590421398</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.987870356622086</v>
+        <v>0.9895758654477483</v>
       </c>
       <c r="D8">
-        <v>1.008497639141482</v>
+        <v>1.009933647281135</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9649267903801509</v>
+        <v>0.9991784313219318</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039413016484563</v>
+        <v>1.041319322716224</v>
       </c>
       <c r="J8">
-        <v>1.009836361989082</v>
+        <v>1.011490832364315</v>
       </c>
       <c r="K8">
-        <v>1.019563721781165</v>
+        <v>1.020980721461206</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9766037857286143</v>
+        <v>1.010369542789724</v>
       </c>
       <c r="N8">
-        <v>1.011270445452956</v>
+        <v>1.007969813729707</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9665438907338723</v>
+        <v>0.9802019960317603</v>
       </c>
       <c r="D9">
-        <v>0.9919781543328532</v>
+        <v>1.003301155775949</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>0.936160710730889</v>
+        <v>0.9875792905458946</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03147809556503</v>
+        <v>1.03868793567405</v>
       </c>
       <c r="J9">
-        <v>0.9933360209423743</v>
+        <v>1.006473779340178</v>
       </c>
       <c r="K9">
-        <v>1.005202735136683</v>
+        <v>1.016340900125444</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>0.9503820458702997</v>
+        <v>1.000877151693441</v>
       </c>
       <c r="N9">
-        <v>0.9947466720293462</v>
+        <v>1.006316520955325</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9507168549953529</v>
+        <v>0.9736439032745621</v>
       </c>
       <c r="D10">
-        <v>0.9797435357385262</v>
+        <v>0.998665283624919</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547164</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>0.9146600458465395</v>
+        <v>0.9794534233367782</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025492802572434</v>
+        <v>1.036769911643995</v>
       </c>
       <c r="J10">
-        <v>0.9810320923942042</v>
+        <v>1.002943694164654</v>
       </c>
       <c r="K10">
-        <v>0.9944884188121298</v>
+        <v>1.013058678677588</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689266</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>0.9307623643665016</v>
+        <v>0.9942038337898079</v>
       </c>
       <c r="N10">
-        <v>0.9824252704913575</v>
+        <v>1.005153334670626</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.943382930084392</v>
+        <v>0.9707240900204928</v>
       </c>
       <c r="D11">
-        <v>0.9740835248494334</v>
+        <v>0.9966031334916756</v>
       </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9046401611240568</v>
+        <v>0.9758320698500511</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022697439902074</v>
+        <v>1.035898368784372</v>
       </c>
       <c r="J11">
-        <v>0.9753166449717902</v>
+        <v>1.001367616629098</v>
       </c>
       <c r="K11">
-        <v>0.9895113162810749</v>
+        <v>1.011589395318239</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9216162143431729</v>
+        <v>0.9912246179799907</v>
       </c>
       <c r="N11">
-        <v>0.9767017064780327</v>
+        <v>1.004634042891602</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9405757722222668</v>
+        <v>0.9696268770541524</v>
       </c>
       <c r="D12">
-        <v>0.9719188069076863</v>
+        <v>0.9958285648825268</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9007940547271437</v>
+        <v>0.9744706135361445</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021624292230816</v>
+        <v>1.035568274473702</v>
       </c>
       <c r="J12">
-        <v>0.9731268428220444</v>
+        <v>1.000774725061935</v>
       </c>
       <c r="K12">
-        <v>0.9876045249880998</v>
+        <v>1.011036121757491</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9181052970401649</v>
+        <v>0.9901038235098495</v>
       </c>
       <c r="N12">
-        <v>0.9745087945580607</v>
+        <v>1.004438701326908</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9411818740748422</v>
+        <v>0.9698628166031901</v>
       </c>
       <c r="D13">
-        <v>0.9723861138863048</v>
+        <v>0.9959951074826686</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368228</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9016250117027563</v>
+        <v>0.9747634040917911</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021856140435072</v>
+        <v>1.035639372211428</v>
       </c>
       <c r="J13">
-        <v>0.9735997464849713</v>
+        <v>1.000902245654885</v>
       </c>
       <c r="K13">
-        <v>0.988016302455101</v>
+        <v>1.011155145917591</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.9188638400801183</v>
+        <v>0.9903448915210362</v>
       </c>
       <c r="N13">
-        <v>0.9749823697984319</v>
+        <v>1.004480715564702</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9431526542269778</v>
+        <v>0.9706336561853096</v>
       </c>
       <c r="D14">
-        <v>0.9739059124169159</v>
+        <v>0.9965392849134924</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9043248932948227</v>
+        <v>0.9757198697761681</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022609471500548</v>
+        <v>1.03587121413068</v>
       </c>
       <c r="J14">
-        <v>0.9751370552394059</v>
+        <v>1.001318762298271</v>
       </c>
       <c r="K14">
-        <v>0.989354933455362</v>
+        <v>1.011543816665946</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764514</v>
+        <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9213284244720352</v>
+        <v>0.9911322663730486</v>
       </c>
       <c r="N14">
-        <v>0.9765218617076297</v>
+        <v>1.004617946586383</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9443555523662889</v>
+        <v>0.9711068982413313</v>
       </c>
       <c r="D15">
-        <v>0.9748337831940496</v>
+        <v>0.9968734205009374</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>0.9059713117656257</v>
+        <v>0.9763069892988564</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023068866200817</v>
+        <v>1.036013209986091</v>
       </c>
       <c r="J15">
-        <v>0.9760750962298828</v>
+        <v>1.001574392483233</v>
       </c>
       <c r="K15">
-        <v>0.9901717649433561</v>
+        <v>1.011782284366454</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9494987508782939</v>
       </c>
       <c r="M15">
-        <v>0.9228313390298404</v>
+        <v>0.9916154925828558</v>
       </c>
       <c r="N15">
-        <v>0.9774612348239073</v>
+        <v>1.004702170741992</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9511925882593851</v>
+        <v>0.9738359410967595</v>
       </c>
       <c r="D16">
-        <v>0.9801109028311286</v>
+        <v>0.9988009569897017</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017257</v>
+        <v>0.9363637346017259</v>
       </c>
       <c r="F16">
-        <v>0.915308665138838</v>
+        <v>0.9796915211219349</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025673690612317</v>
+        <v>1.036826871884857</v>
       </c>
       <c r="J16">
-        <v>0.9814025493315548</v>
+        <v>1.003047264593941</v>
       </c>
       <c r="K16">
-        <v>0.9948110277930643</v>
+        <v>1.013155152814447</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9519451749175716</v>
       </c>
       <c r="M16">
-        <v>0.9313543840498681</v>
+        <v>0.9943996062977817</v>
       </c>
       <c r="N16">
-        <v>0.9827962535200513</v>
+        <v>1.005187460276884</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.955345682285641</v>
+        <v>0.9755259183467769</v>
       </c>
       <c r="D17">
-        <v>0.9833190388547546</v>
+        <v>0.9999951327868678</v>
       </c>
       <c r="E17">
         <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>0.920964482829749</v>
+        <v>0.9817864248820551</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027250393953349</v>
+        <v>1.037326139328317</v>
       </c>
       <c r="J17">
-        <v>0.9846350270042298</v>
+        <v>1.003958210882689</v>
       </c>
       <c r="K17">
-        <v>0.9976260069216677</v>
+        <v>1.014003247343576</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>0.93651637035612</v>
+        <v>0.9961215227092006</v>
       </c>
       <c r="N17">
-        <v>0.9860333216817918</v>
+        <v>1.005487613840699</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9577225701962706</v>
+        <v>0.9765039680812366</v>
       </c>
       <c r="D18">
-        <v>0.9851559446320781</v>
+        <v>1.000686414949936</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>0.9241963074777888</v>
+        <v>0.9829984908962753</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028150733902365</v>
+        <v>1.037613409485017</v>
       </c>
       <c r="J18">
-        <v>0.9864837309552484</v>
+        <v>1.004484987894301</v>
       </c>
       <c r="K18">
-        <v>0.9992359214896499</v>
+        <v>1.014493310487511</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>0.9394657310181591</v>
+        <v>0.9971172909174708</v>
       </c>
       <c r="N18">
-        <v>0.9878846510044705</v>
+        <v>1.005661188345195</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9585255928801818</v>
+        <v>0.976836172557645</v>
       </c>
       <c r="D19">
-        <v>0.9857766688706193</v>
+        <v>1.000921242688535</v>
       </c>
       <c r="E19">
-        <v>0.9397594814680091</v>
+        <v>0.9397594814684969</v>
       </c>
       <c r="F19">
-        <v>0.9252873611022518</v>
+        <v>0.9834101280318941</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028454562328918</v>
+        <v>1.037710698066245</v>
       </c>
       <c r="J19">
-        <v>0.9871080887774631</v>
+        <v>1.00466384088432</v>
       </c>
       <c r="K19">
-        <v>0.9997796274864048</v>
+        <v>1.014659635049324</v>
       </c>
       <c r="L19">
-        <v>0.9546352493812711</v>
+        <v>0.9546352493816594</v>
       </c>
       <c r="M19">
-        <v>0.9404613721020177</v>
+        <v>0.997455384928048</v>
       </c>
       <c r="N19">
-        <v>0.9885098954864076</v>
+        <v>1.005720121444199</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9549048755675287</v>
+        <v>0.9753453991201633</v>
       </c>
       <c r="D20">
-        <v>0.9829784403247293</v>
+        <v>0.999867555678995</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.9203647235359065</v>
+        <v>0.9815626871320957</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027083254980987</v>
+        <v>1.03727298201978</v>
       </c>
       <c r="J20">
-        <v>0.9842920694048509</v>
+        <v>1.003860949176002</v>
       </c>
       <c r="K20">
-        <v>0.9973273456116089</v>
+        <v>1.013912734360376</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.9359690061845117</v>
+        <v>0.9959376715600614</v>
       </c>
       <c r="N20">
-        <v>0.9856898770432844</v>
+        <v>1.005455566098603</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9425746992241294</v>
+        <v>0.9704070179973285</v>
       </c>
       <c r="D21">
-        <v>0.9734601629775887</v>
+        <v>0.996379278504114</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9035334392326523</v>
+        <v>0.9754386724969708</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022388634412079</v>
+        <v>1.035803119839275</v>
       </c>
       <c r="J21">
-        <v>0.9746862797795905</v>
+        <v>1.001196317360911</v>
       </c>
       <c r="K21">
-        <v>0.9889624104779395</v>
+        <v>1.011429572783036</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981065</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.920605949417062</v>
+        <v>0.990900801582737</v>
       </c>
       <c r="N21">
-        <v>0.9760704460949564</v>
+        <v>1.004577604087671</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.934334616564707</v>
+        <v>0.9672284469209538</v>
       </c>
       <c r="D22">
-        <v>0.9671096158332592</v>
+        <v>0.9941361388366231</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651161</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.8922197174828418</v>
+        <v>0.9714933294638887</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.019232582446066</v>
+        <v>1.034842026181567</v>
       </c>
       <c r="J22">
-        <v>0.9682542422246331</v>
+        <v>0.9994775824383703</v>
       </c>
       <c r="K22">
-        <v>0.9833620616284691</v>
+        <v>1.009824661904205</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9102781839285282</v>
+        <v>0.9876514807803626</v>
       </c>
       <c r="N22">
-        <v>0.969629274308906</v>
+        <v>1.004011341480521</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9387533584655215</v>
+        <v>0.9689206665370425</v>
       </c>
       <c r="D23">
-        <v>0.9705140007812585</v>
+        <v>0.9953301292526429</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963314</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.8982937456293811</v>
+        <v>0.9735941399891889</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020926717815349</v>
+        <v>1.035355091763434</v>
       </c>
       <c r="J23">
-        <v>0.971704609831776</v>
+        <v>1.000392942548626</v>
       </c>
       <c r="K23">
-        <v>0.986366155613879</v>
+        <v>1.010679697109702</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285318</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.915822871827522</v>
+        <v>0.9893820745931684</v>
       </c>
       <c r="N23">
-        <v>0.9730845418338137</v>
+        <v>1.00431291639695</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9551041970953013</v>
+        <v>0.9754269916928523</v>
       </c>
       <c r="D24">
-        <v>0.9831324476989598</v>
+        <v>0.9999252185125662</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011709</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.9206359350717537</v>
+        <v>0.9816638149840229</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027158837296759</v>
+        <v>1.037297013693124</v>
       </c>
       <c r="J24">
-        <v>0.9844471501080823</v>
+        <v>1.003904911630658</v>
       </c>
       <c r="K24">
-        <v>0.9974623962006917</v>
+        <v>1.013953647524902</v>
       </c>
       <c r="L24">
-        <v>0.953371659644245</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>0.9362165255045675</v>
+        <v>0.9960207724940325</v>
       </c>
       <c r="N24">
-        <v>0.9858451779789021</v>
+        <v>1.005470051721502</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9723124360856109</v>
+        <v>0.9826776198116097</v>
       </c>
       <c r="D25">
-        <v>0.996443221695395</v>
+        <v>1.005052304459112</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717732</v>
+        <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>0.9439616120744529</v>
+        <v>0.9906442021150348</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033640847741219</v>
+        <v>1.039396385062217</v>
       </c>
       <c r="J25">
-        <v>0.9978089262461072</v>
+        <v>1.007802352484203</v>
       </c>
       <c r="K25">
-        <v>1.009097004139382</v>
+        <v>1.017572692945787</v>
       </c>
       <c r="L25">
-        <v>0.959875449400561</v>
+        <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>0.9574969591872612</v>
+        <v>1.003389512042974</v>
       </c>
       <c r="N25">
-        <v>0.9992259293716601</v>
+        <v>1.006754318876421</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_12/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9882399993939712</v>
+        <v>1.014668797375967</v>
       </c>
       <c r="D2">
-        <v>1.00898824587287</v>
+        <v>1.021211119736525</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.9975263703464169</v>
+        <v>1.026858221286603</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040953208210137</v>
+        <v>1.027611606393266</v>
       </c>
       <c r="J2">
-        <v>1.0107782310703</v>
+        <v>1.01989871326918</v>
       </c>
       <c r="K2">
-        <v>1.020323764451098</v>
+        <v>1.024049120349957</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.009020274672421</v>
+        <v>1.029679641441378</v>
       </c>
       <c r="N2">
-        <v>1.007734980175729</v>
+        <v>1.010775762258241</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9921602022478749</v>
+        <v>1.015479718667332</v>
       </c>
       <c r="D3">
-        <v>1.011762590453086</v>
+        <v>1.021789817107072</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>1.00237375687837</v>
+        <v>1.027926763525179</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042018359132515</v>
+        <v>1.027746054806674</v>
       </c>
       <c r="J3">
-        <v>1.012866893893863</v>
+        <v>1.020345044725622</v>
       </c>
       <c r="K3">
-        <v>1.022247146860902</v>
+        <v>1.024434846105535</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.012976354877184</v>
+        <v>1.030555080408866</v>
       </c>
       <c r="N3">
-        <v>1.008423289994632</v>
+        <v>1.010922686223704</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.99464483153788</v>
+        <v>1.016004570188592</v>
       </c>
       <c r="D4">
-        <v>1.013520806838652</v>
+        <v>1.022163994597182</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.005445025466997</v>
+        <v>1.028618306622823</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042678294343608</v>
+        <v>1.027831202631635</v>
       </c>
       <c r="J4">
-        <v>1.014186522199614</v>
+        <v>1.020633348066851</v>
       </c>
       <c r="K4">
-        <v>1.023458741170592</v>
+        <v>1.024683460171452</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.015478175060684</v>
+        <v>1.031121083325464</v>
       </c>
       <c r="N4">
-        <v>1.008858170688205</v>
+        <v>1.011017582247846</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.995677320163206</v>
+        <v>1.016225247861233</v>
       </c>
       <c r="D5">
-        <v>1.014251343035104</v>
+        <v>1.022321230528245</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.006721100092691</v>
+        <v>1.028909060491324</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042948844172257</v>
+        <v>1.027866555275906</v>
       </c>
       <c r="J5">
-        <v>1.014733869321959</v>
+        <v>1.02075442936866</v>
       </c>
       <c r="K5">
-        <v>1.023960391258154</v>
+        <v>1.024787742636343</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.016516496108978</v>
+        <v>1.031358918909325</v>
       </c>
       <c r="N5">
-        <v>1.009038547606847</v>
+        <v>1.011057434626693</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9958499842353371</v>
+        <v>1.016262302339686</v>
       </c>
       <c r="D6">
-        <v>1.014373504472955</v>
+        <v>1.022347627080899</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.006934489405595</v>
+        <v>1.028957881033288</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042993870328951</v>
+        <v>1.027872465110583</v>
       </c>
       <c r="J6">
-        <v>1.014825341744819</v>
+        <v>1.020774752302138</v>
       </c>
       <c r="K6">
-        <v>1.024044174005566</v>
+        <v>1.024805238313151</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.01669005900494</v>
+        <v>1.031398845956599</v>
       </c>
       <c r="N6">
-        <v>1.009068692088333</v>
+        <v>1.0110641235487</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9946586745312608</v>
+        <v>1.016007518777872</v>
       </c>
       <c r="D7">
-        <v>1.013530601860929</v>
+        <v>1.022166095861778</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>1.005462135011253</v>
+        <v>1.028622191576635</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042681936343497</v>
+        <v>1.027831676759041</v>
       </c>
       <c r="J7">
-        <v>1.014193864785658</v>
+        <v>1.020634966439524</v>
       </c>
       <c r="K7">
-        <v>1.023465474274008</v>
+        <v>1.024684854523276</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.015492101406854</v>
+        <v>1.031124261737455</v>
       </c>
       <c r="N7">
-        <v>1.008860590421398</v>
+        <v>1.011018114922399</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9895758654477483</v>
+        <v>1.014942824059693</v>
       </c>
       <c r="D8">
-        <v>1.009933647281135</v>
+        <v>1.021406749887903</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>0.9991784313219318</v>
+        <v>1.027219313856296</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041319322716224</v>
+        <v>1.027657426305596</v>
       </c>
       <c r="J8">
-        <v>1.011490832364315</v>
+        <v>1.02004965660706</v>
       </c>
       <c r="K8">
-        <v>1.020980721461206</v>
+        <v>1.024179679625867</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>1.010369542789724</v>
+        <v>1.029975595860747</v>
       </c>
       <c r="N8">
-        <v>1.007969813729707</v>
+        <v>1.010825451637862</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9802019960317603</v>
+        <v>1.013067758989844</v>
       </c>
       <c r="D9">
-        <v>1.003301155775949</v>
+        <v>1.020066624788036</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9875792905458946</v>
+        <v>1.024748251722803</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03868793567405</v>
+        <v>1.027336245436603</v>
       </c>
       <c r="J9">
-        <v>1.006473779340178</v>
+        <v>1.019014458327734</v>
       </c>
       <c r="K9">
-        <v>1.016340900125444</v>
+        <v>1.023282070643777</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.000877151693441</v>
+        <v>1.027947976385528</v>
       </c>
       <c r="N9">
-        <v>1.006316520955325</v>
+        <v>1.010484639966816</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9736439032745621</v>
+        <v>1.011818507387199</v>
       </c>
       <c r="D10">
-        <v>0.998665283624919</v>
+        <v>1.019171918702394</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9794534233367782</v>
+        <v>1.023101580970847</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036769911643995</v>
+        <v>1.027112670302164</v>
       </c>
       <c r="J10">
-        <v>1.002943694164654</v>
+        <v>1.018321825269327</v>
       </c>
       <c r="K10">
-        <v>1.013058678677588</v>
+        <v>1.022678739519785</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9942038337898079</v>
+        <v>1.026593906057375</v>
       </c>
       <c r="N10">
-        <v>1.005153334670626</v>
+        <v>1.010256568805982</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9707240900204928</v>
+        <v>1.011277771307175</v>
       </c>
       <c r="D11">
-        <v>0.9966031334916756</v>
+        <v>1.018784215288543</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9758320698500511</v>
+        <v>1.022388728876544</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035898368784372</v>
+        <v>1.027013626605431</v>
       </c>
       <c r="J11">
-        <v>1.001367616629098</v>
+        <v>1.018021326540884</v>
       </c>
       <c r="K11">
-        <v>1.011589395318239</v>
+        <v>1.022416336359236</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9912246179799907</v>
+        <v>1.026007036147011</v>
       </c>
       <c r="N11">
-        <v>1.004634042891602</v>
+        <v>1.010157610892357</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9696268770541524</v>
+        <v>1.011076948847768</v>
       </c>
       <c r="D12">
-        <v>0.9958285648825268</v>
+        <v>1.01864016303293</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9744706135361445</v>
+        <v>1.022123969494695</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035568274473702</v>
+        <v>1.026976502411515</v>
       </c>
       <c r="J12">
-        <v>1.000774725061935</v>
+        <v>1.017909621138049</v>
       </c>
       <c r="K12">
-        <v>1.011036121757491</v>
+        <v>1.022318695442314</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9901038235098495</v>
+        <v>1.025788964731411</v>
       </c>
       <c r="N12">
-        <v>1.004438701326908</v>
+        <v>1.010120823557347</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9698628166031901</v>
+        <v>1.011120024524571</v>
       </c>
       <c r="D13">
-        <v>0.9959951074826686</v>
+        <v>1.018671064603439</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9747634040917911</v>
+        <v>1.022180760113161</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035639372211428</v>
+        <v>1.026984480823262</v>
       </c>
       <c r="J13">
-        <v>1.000902245654885</v>
+        <v>1.017933586238617</v>
       </c>
       <c r="K13">
-        <v>1.011155145917591</v>
+        <v>1.022339647547929</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9903448915210362</v>
+        <v>1.025835745482229</v>
       </c>
       <c r="N13">
-        <v>1.004480715564702</v>
+        <v>1.010128715916085</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9706336561853096</v>
+        <v>1.011261170620582</v>
       </c>
       <c r="D14">
-        <v>0.9965392849134924</v>
+        <v>1.018772308730667</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9757198697761681</v>
+        <v>1.022366843257785</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03587121413068</v>
+        <v>1.027010564736894</v>
       </c>
       <c r="J14">
-        <v>1.001318762298271</v>
+        <v>1.018012094702561</v>
       </c>
       <c r="K14">
-        <v>1.011543816665946</v>
+        <v>1.022408268847287</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9911322663730486</v>
+        <v>1.025989011960969</v>
       </c>
       <c r="N14">
-        <v>1.004617946586383</v>
+        <v>1.010154570649051</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9711068982413313</v>
+        <v>1.011348139532986</v>
       </c>
       <c r="D15">
-        <v>0.9968734205009374</v>
+        <v>1.018834683068171</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9763069892988564</v>
+        <v>1.022481498635404</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036013209986091</v>
+        <v>1.027026591533215</v>
       </c>
       <c r="J15">
-        <v>1.001574392483233</v>
+        <v>1.018060454885414</v>
       </c>
       <c r="K15">
-        <v>1.011782284366454</v>
+        <v>1.022450525842922</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9916154925828558</v>
+        <v>1.026083433675736</v>
       </c>
       <c r="N15">
-        <v>1.004702170741992</v>
+        <v>1.010170496643154</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9738359410967595</v>
+        <v>1.011854398539234</v>
       </c>
       <c r="D16">
-        <v>0.9988009569897017</v>
+        <v>1.019197643331845</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9796915211219349</v>
+        <v>1.023148894182646</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036826871884857</v>
+        <v>1.027119196494767</v>
       </c>
       <c r="J16">
-        <v>1.003047264593941</v>
+        <v>1.018341756156396</v>
       </c>
       <c r="K16">
-        <v>1.013155152814447</v>
+        <v>1.022696130074645</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9943996062977817</v>
+        <v>1.026632843175832</v>
       </c>
       <c r="N16">
-        <v>1.005187460276884</v>
+        <v>1.010263132097421</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9755259183467769</v>
+        <v>1.012172015349702</v>
       </c>
       <c r="D17">
-        <v>0.9999951327868678</v>
+        <v>1.019425242260828</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.9817864248820551</v>
+        <v>1.023567578900809</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037326139328317</v>
+        <v>1.027176687485335</v>
       </c>
       <c r="J17">
-        <v>1.003958210882689</v>
+        <v>1.0185180533195</v>
       </c>
       <c r="K17">
-        <v>1.014003247343576</v>
+        <v>1.022849882188251</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>0.9961215227092006</v>
+        <v>1.026977326816189</v>
       </c>
       <c r="N17">
-        <v>1.005487613840699</v>
+        <v>1.010321186129477</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9765039680812366</v>
+        <v>1.012357294893615</v>
       </c>
       <c r="D18">
-        <v>1.000686414949936</v>
+        <v>1.019557968800318</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>0.9829984908962753</v>
+        <v>1.023811806712793</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037613409485017</v>
+        <v>1.027210005393617</v>
       </c>
       <c r="J18">
-        <v>1.004484987894301</v>
+        <v>1.018620828056858</v>
       </c>
       <c r="K18">
-        <v>1.014493310487511</v>
+        <v>1.022939451507028</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>0.9971172909174708</v>
+        <v>1.027178205330314</v>
       </c>
       <c r="N18">
-        <v>1.005661188345195</v>
+        <v>1.010355028591221</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.976836172557645</v>
+        <v>1.012420473620612</v>
       </c>
       <c r="D19">
-        <v>1.000921242688535</v>
+        <v>1.019603220311462</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>0.9834101280318941</v>
+        <v>1.023895084800613</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037710698066245</v>
+        <v>1.027221329345908</v>
       </c>
       <c r="J19">
-        <v>1.00466384088432</v>
+        <v>1.018655861988369</v>
       </c>
       <c r="K19">
-        <v>1.014659635049324</v>
+        <v>1.022969973352381</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>0.997455384928048</v>
+        <v>1.027246690710084</v>
       </c>
       <c r="N19">
-        <v>1.005720121444199</v>
+        <v>1.010366564683159</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9753453991201633</v>
+        <v>1.012137936094309</v>
       </c>
       <c r="D20">
-        <v>0.999867555678995</v>
+        <v>1.019400825941109</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.9815626871320957</v>
+        <v>1.023522656323931</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03727298201978</v>
+        <v>1.027170541542954</v>
       </c>
       <c r="J20">
-        <v>1.003860949176002</v>
+        <v>1.018499144130744</v>
       </c>
       <c r="K20">
-        <v>1.013912734360376</v>
+        <v>1.022833397585991</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>0.9959376715600614</v>
+        <v>1.026940372455662</v>
       </c>
       <c r="N20">
-        <v>1.005455566098603</v>
+        <v>1.010314959493056</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9704070179973285</v>
+        <v>1.011219605747723</v>
       </c>
       <c r="D21">
-        <v>0.996379278504114</v>
+        <v>1.018742496003814</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9754386724969708</v>
+        <v>1.02231204569826</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035803119839275</v>
+        <v>1.027002892915203</v>
       </c>
       <c r="J21">
-        <v>1.001196317360911</v>
+        <v>1.01798897830507</v>
       </c>
       <c r="K21">
-        <v>1.011429572783036</v>
+        <v>1.022388066343547</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>0.990900801582737</v>
+        <v>1.02594388105627</v>
       </c>
       <c r="N21">
-        <v>1.004577604087671</v>
+        <v>1.010146957899019</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9672284469209538</v>
+        <v>1.010642394957656</v>
       </c>
       <c r="D22">
-        <v>0.9941361388366231</v>
+        <v>1.018328335941057</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9714933294638887</v>
+        <v>1.021551035259046</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034842026181567</v>
+        <v>1.026895547968592</v>
       </c>
       <c r="J22">
-        <v>0.9994775824383703</v>
+        <v>1.017667715097555</v>
       </c>
       <c r="K22">
-        <v>1.009824661904205</v>
+        <v>1.022107070267467</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.9876514807803626</v>
+        <v>1.025316874388953</v>
       </c>
       <c r="N22">
-        <v>1.004011341480521</v>
+        <v>1.010041155451712</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9689206665370425</v>
+        <v>1.010948367850734</v>
       </c>
       <c r="D23">
-        <v>0.9953301292526429</v>
+        <v>1.018547912427679</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9735941399891889</v>
+        <v>1.021954447046985</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035355091763434</v>
+        <v>1.02695263698338</v>
       </c>
       <c r="J23">
-        <v>1.000392942548626</v>
+        <v>1.017838070042108</v>
       </c>
       <c r="K23">
-        <v>1.010679697109702</v>
+        <v>1.022256125900024</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>0.9893820745931684</v>
+        <v>1.025649307116903</v>
       </c>
       <c r="N23">
-        <v>1.00431291639695</v>
+        <v>1.010097259637122</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9754269916928523</v>
+        <v>1.012153334984196</v>
       </c>
       <c r="D24">
-        <v>0.9999252185125662</v>
+        <v>1.01941185871189</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9816638149840229</v>
+        <v>1.023542954852929</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037297013693124</v>
+        <v>1.027173319296033</v>
       </c>
       <c r="J24">
-        <v>1.003904911630658</v>
+        <v>1.018507688553604</v>
       </c>
       <c r="K24">
-        <v>1.013953647524902</v>
+        <v>1.02284084661338</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>0.9960207724940325</v>
+        <v>1.026957070704106</v>
       </c>
       <c r="N24">
-        <v>1.005470051721502</v>
+        <v>1.01031777310223</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9826776198116097</v>
+        <v>1.013552374324425</v>
       </c>
       <c r="D25">
-        <v>1.005052304459112</v>
+        <v>1.020413313496076</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>0.9906442021150348</v>
+        <v>1.025386959339229</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039396385062217</v>
+        <v>1.027420948107964</v>
       </c>
       <c r="J25">
-        <v>1.007802352484203</v>
+        <v>1.019282527000141</v>
       </c>
       <c r="K25">
-        <v>1.017572692945787</v>
+        <v>1.023514997110262</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.003389512042974</v>
+        <v>1.028472577516152</v>
       </c>
       <c r="N25">
-        <v>1.006754318876421</v>
+        <v>1.010572901609552</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_12/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014668797375967</v>
+        <v>0.9882399993939714</v>
       </c>
       <c r="D2">
-        <v>1.021211119736525</v>
+        <v>1.00898824587287</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.026858221286603</v>
+        <v>0.9975263703464174</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.027611606393266</v>
+        <v>1.040953208210138</v>
       </c>
       <c r="J2">
-        <v>1.01989871326918</v>
+        <v>1.0107782310703</v>
       </c>
       <c r="K2">
-        <v>1.024049120349957</v>
+        <v>1.020323764451098</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.029679641441378</v>
+        <v>1.009020274672421</v>
       </c>
       <c r="N2">
-        <v>1.010775762258241</v>
+        <v>1.007734980175729</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015479718667332</v>
+        <v>0.9921602022478754</v>
       </c>
       <c r="D3">
-        <v>1.021789817107072</v>
+        <v>1.011762590453086</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.027926763525179</v>
+        <v>1.00237375687837</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.027746054806674</v>
+        <v>1.042018359132515</v>
       </c>
       <c r="J3">
-        <v>1.020345044725622</v>
+        <v>1.012866893893863</v>
       </c>
       <c r="K3">
-        <v>1.024434846105535</v>
+        <v>1.022247146860902</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.030555080408866</v>
+        <v>1.012976354877184</v>
       </c>
       <c r="N3">
-        <v>1.010922686223704</v>
+        <v>1.008423289994632</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016004570188592</v>
+        <v>0.9946448315378795</v>
       </c>
       <c r="D4">
-        <v>1.022163994597182</v>
+        <v>1.013520806838651</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.028618306622823</v>
+        <v>1.005445025466997</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.027831202631635</v>
+        <v>1.042678294343607</v>
       </c>
       <c r="J4">
-        <v>1.020633348066851</v>
+        <v>1.014186522199614</v>
       </c>
       <c r="K4">
-        <v>1.024683460171452</v>
+        <v>1.023458741170591</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.031121083325464</v>
+        <v>1.015478175060683</v>
       </c>
       <c r="N4">
-        <v>1.011017582247846</v>
+        <v>1.008858170688205</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016225247861233</v>
+        <v>0.9956773201632061</v>
       </c>
       <c r="D5">
-        <v>1.022321230528245</v>
+        <v>1.014251343035104</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.028909060491324</v>
+        <v>1.006721100092691</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.027866555275906</v>
+        <v>1.042948844172257</v>
       </c>
       <c r="J5">
-        <v>1.02075442936866</v>
+        <v>1.014733869321959</v>
       </c>
       <c r="K5">
-        <v>1.024787742636343</v>
+        <v>1.023960391258154</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.031358918909325</v>
+        <v>1.016516496108978</v>
       </c>
       <c r="N5">
-        <v>1.011057434626693</v>
+        <v>1.009038547606847</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016262302339686</v>
+        <v>0.9958499842353372</v>
       </c>
       <c r="D6">
-        <v>1.022347627080899</v>
+        <v>1.014373504472955</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.028957881033288</v>
+        <v>1.006934489405596</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.027872465110583</v>
+        <v>1.042993870328951</v>
       </c>
       <c r="J6">
-        <v>1.020774752302138</v>
+        <v>1.014825341744819</v>
       </c>
       <c r="K6">
-        <v>1.024805238313151</v>
+        <v>1.024044174005566</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.031398845956599</v>
+        <v>1.016690059004941</v>
       </c>
       <c r="N6">
-        <v>1.0110641235487</v>
+        <v>1.009068692088333</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016007518777872</v>
+        <v>0.9946586745312604</v>
       </c>
       <c r="D7">
-        <v>1.022166095861778</v>
+        <v>1.013530601860929</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.028622191576635</v>
+        <v>1.005462135011252</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.027831676759041</v>
+        <v>1.042681936343496</v>
       </c>
       <c r="J7">
-        <v>1.020634966439524</v>
+        <v>1.014193864785658</v>
       </c>
       <c r="K7">
-        <v>1.024684854523276</v>
+        <v>1.023465474274008</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.031124261737455</v>
+        <v>1.015492101406853</v>
       </c>
       <c r="N7">
-        <v>1.011018114922399</v>
+        <v>1.008860590421398</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014942824059693</v>
+        <v>0.9895758654477483</v>
       </c>
       <c r="D8">
-        <v>1.021406749887903</v>
+        <v>1.009933647281135</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.027219313856296</v>
+        <v>0.999178431321932</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027657426305596</v>
+        <v>1.041319322716224</v>
       </c>
       <c r="J8">
-        <v>1.02004965660706</v>
+        <v>1.011490832364315</v>
       </c>
       <c r="K8">
-        <v>1.024179679625867</v>
+        <v>1.020980721461206</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.029975595860747</v>
+        <v>1.010369542789725</v>
       </c>
       <c r="N8">
-        <v>1.010825451637862</v>
+        <v>1.007969813729707</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.013067758989844</v>
+        <v>0.9802019960317611</v>
       </c>
       <c r="D9">
-        <v>1.020066624788036</v>
+        <v>1.00330115577595</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.024748251722803</v>
+        <v>0.9875792905458955</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027336245436603</v>
+        <v>1.038687935674051</v>
       </c>
       <c r="J9">
-        <v>1.019014458327734</v>
+        <v>1.006473779340179</v>
       </c>
       <c r="K9">
-        <v>1.023282070643777</v>
+        <v>1.016340900125446</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.027947976385528</v>
+        <v>1.000877151693442</v>
       </c>
       <c r="N9">
-        <v>1.010484639966816</v>
+        <v>1.006316520955326</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.011818507387199</v>
+        <v>0.9736439032745619</v>
       </c>
       <c r="D10">
-        <v>1.019171918702394</v>
+        <v>0.9986652836249189</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.023101580970847</v>
+        <v>0.9794534233367778</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027112670302164</v>
+        <v>1.036769911643995</v>
       </c>
       <c r="J10">
-        <v>1.018321825269327</v>
+        <v>1.002943694164654</v>
       </c>
       <c r="K10">
-        <v>1.022678739519785</v>
+        <v>1.013058678677588</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.026593906057375</v>
+        <v>0.9942038337898075</v>
       </c>
       <c r="N10">
-        <v>1.010256568805982</v>
+        <v>1.005153334670626</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.011277771307175</v>
+        <v>0.9707240900204938</v>
       </c>
       <c r="D11">
-        <v>1.018784215288543</v>
+        <v>0.9966031334916765</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.022388728876544</v>
+        <v>0.975832069850052</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027013626605431</v>
+        <v>1.035898368784373</v>
       </c>
       <c r="J11">
-        <v>1.018021326540884</v>
+        <v>1.001367616629099</v>
       </c>
       <c r="K11">
-        <v>1.022416336359236</v>
+        <v>1.01158939531824</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.026007036147011</v>
+        <v>0.9912246179799915</v>
       </c>
       <c r="N11">
-        <v>1.010157610892357</v>
+        <v>1.004634042891603</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.011076948847768</v>
+        <v>0.9696268770541525</v>
       </c>
       <c r="D12">
-        <v>1.01864016303293</v>
+        <v>0.9958285648825268</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.022123969494695</v>
+        <v>0.9744706135361448</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026976502411515</v>
+        <v>1.035568274473702</v>
       </c>
       <c r="J12">
-        <v>1.017909621138049</v>
+        <v>1.000774725061935</v>
       </c>
       <c r="K12">
-        <v>1.022318695442314</v>
+        <v>1.011036121757491</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.025788964731411</v>
+        <v>0.9901038235098497</v>
       </c>
       <c r="N12">
-        <v>1.010120823557347</v>
+        <v>1.004438701326908</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.011120024524571</v>
+        <v>0.9698628166031898</v>
       </c>
       <c r="D13">
-        <v>1.018671064603439</v>
+        <v>0.9959951074826683</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.022180760113161</v>
+        <v>0.9747634040917911</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026984480823262</v>
+        <v>1.035639372211428</v>
       </c>
       <c r="J13">
-        <v>1.017933586238617</v>
+        <v>1.000902245654885</v>
       </c>
       <c r="K13">
-        <v>1.022339647547929</v>
+        <v>1.011155145917591</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.025835745482229</v>
+        <v>0.9903448915210363</v>
       </c>
       <c r="N13">
-        <v>1.010128715916085</v>
+        <v>1.004480715564702</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.011261170620582</v>
+        <v>0.9706336561853101</v>
       </c>
       <c r="D14">
-        <v>1.018772308730667</v>
+        <v>0.9965392849134928</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.022366843257785</v>
+        <v>0.9757198697761681</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027010564736894</v>
+        <v>1.03587121413068</v>
       </c>
       <c r="J14">
-        <v>1.018012094702561</v>
+        <v>1.001318762298272</v>
       </c>
       <c r="K14">
-        <v>1.022408268847287</v>
+        <v>1.011543816665946</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.025989011960969</v>
+        <v>0.9911322663730487</v>
       </c>
       <c r="N14">
-        <v>1.010154570649051</v>
+        <v>1.004617946586383</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.011348139532986</v>
+        <v>0.9711068982413313</v>
       </c>
       <c r="D15">
-        <v>1.018834683068171</v>
+        <v>0.9968734205009376</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.022481498635404</v>
+        <v>0.9763069892988565</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027026591533215</v>
+        <v>1.036013209986091</v>
       </c>
       <c r="J15">
-        <v>1.018060454885414</v>
+        <v>1.001574392483233</v>
       </c>
       <c r="K15">
-        <v>1.022450525842922</v>
+        <v>1.011782284366454</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.026083433675736</v>
+        <v>0.991615492582856</v>
       </c>
       <c r="N15">
-        <v>1.010170496643154</v>
+        <v>1.004702170741992</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.011854398539234</v>
+        <v>0.9738359410967597</v>
       </c>
       <c r="D16">
-        <v>1.019197643331845</v>
+        <v>0.9988009569897017</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.023148894182646</v>
+        <v>0.979691521121935</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027119196494767</v>
+        <v>1.036826871884857</v>
       </c>
       <c r="J16">
-        <v>1.018341756156396</v>
+        <v>1.003047264593941</v>
       </c>
       <c r="K16">
-        <v>1.022696130074645</v>
+        <v>1.013155152814446</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.026632843175832</v>
+        <v>0.9943996062977819</v>
       </c>
       <c r="N16">
-        <v>1.010263132097421</v>
+        <v>1.005187460276884</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.012172015349702</v>
+        <v>0.9755259183467768</v>
       </c>
       <c r="D17">
-        <v>1.019425242260828</v>
+        <v>0.9999951327868676</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.023567578900809</v>
+        <v>0.9817864248820548</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027176687485335</v>
+        <v>1.037326139328317</v>
       </c>
       <c r="J17">
-        <v>1.0185180533195</v>
+        <v>1.003958210882689</v>
       </c>
       <c r="K17">
-        <v>1.022849882188251</v>
+        <v>1.014003247343575</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.026977326816189</v>
+        <v>0.9961215227092004</v>
       </c>
       <c r="N17">
-        <v>1.010321186129477</v>
+        <v>1.005487613840699</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.012357294893615</v>
+        <v>0.9765039680812363</v>
       </c>
       <c r="D18">
-        <v>1.019557968800318</v>
+        <v>1.000686414949936</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.023811806712793</v>
+        <v>0.9829984908962752</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027210005393617</v>
+        <v>1.037613409485016</v>
       </c>
       <c r="J18">
-        <v>1.018620828056858</v>
+        <v>1.004484987894301</v>
       </c>
       <c r="K18">
-        <v>1.022939451507028</v>
+        <v>1.014493310487511</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.027178205330314</v>
+        <v>0.9971172909174707</v>
       </c>
       <c r="N18">
-        <v>1.010355028591221</v>
+        <v>1.005661188345195</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012420473620612</v>
+        <v>0.976836172557645</v>
       </c>
       <c r="D19">
-        <v>1.019603220311462</v>
+        <v>1.000921242688535</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.023895084800613</v>
+        <v>0.983410128031894</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027221329345908</v>
+        <v>1.037710698066245</v>
       </c>
       <c r="J19">
-        <v>1.018655861988369</v>
+        <v>1.00466384088432</v>
       </c>
       <c r="K19">
-        <v>1.022969973352381</v>
+        <v>1.014659635049323</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.027246690710084</v>
+        <v>0.9974553849280479</v>
       </c>
       <c r="N19">
-        <v>1.010366564683159</v>
+        <v>1.005720121444198</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.012137936094309</v>
+        <v>0.9753453991201626</v>
       </c>
       <c r="D20">
-        <v>1.019400825941109</v>
+        <v>0.9998675556789947</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.023522656323931</v>
+        <v>0.9815626871320952</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027170541542954</v>
+        <v>1.03727298201978</v>
       </c>
       <c r="J20">
-        <v>1.018499144130744</v>
+        <v>1.003860949176001</v>
       </c>
       <c r="K20">
-        <v>1.022833397585991</v>
+        <v>1.013912734360376</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.026940372455662</v>
+        <v>0.995937671560061</v>
       </c>
       <c r="N20">
-        <v>1.010314959493056</v>
+        <v>1.005455566098603</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.011219605747723</v>
+        <v>0.9704070179973284</v>
       </c>
       <c r="D21">
-        <v>1.018742496003814</v>
+        <v>0.9963792785041139</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.02231204569826</v>
+        <v>0.9754386724969706</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027002892915203</v>
+        <v>1.035803119839275</v>
       </c>
       <c r="J21">
-        <v>1.01798897830507</v>
+        <v>1.001196317360911</v>
       </c>
       <c r="K21">
-        <v>1.022388066343547</v>
+        <v>1.011429572783036</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.02594388105627</v>
+        <v>0.9909008015827366</v>
       </c>
       <c r="N21">
-        <v>1.010146957899019</v>
+        <v>1.004577604087671</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.010642394957656</v>
+        <v>0.9672284469209534</v>
       </c>
       <c r="D22">
-        <v>1.018328335941057</v>
+        <v>0.9941361388366229</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.021551035259046</v>
+        <v>0.9714933294638881</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026895547968592</v>
+        <v>1.034842026181567</v>
       </c>
       <c r="J22">
-        <v>1.017667715097555</v>
+        <v>0.9994775824383701</v>
       </c>
       <c r="K22">
-        <v>1.022107070267467</v>
+        <v>1.009824661904205</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.025316874388953</v>
+        <v>0.9876514807803622</v>
       </c>
       <c r="N22">
-        <v>1.010041155451712</v>
+        <v>1.004011341480521</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.010948367850734</v>
+        <v>0.9689206665370428</v>
       </c>
       <c r="D23">
-        <v>1.018547912427679</v>
+        <v>0.9953301292526435</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.021954447046985</v>
+        <v>0.9735941399891892</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02695263698338</v>
+        <v>1.035355091763434</v>
       </c>
       <c r="J23">
-        <v>1.017838070042108</v>
+        <v>1.000392942548626</v>
       </c>
       <c r="K23">
-        <v>1.022256125900024</v>
+        <v>1.010679697109702</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.025649307116903</v>
+        <v>0.9893820745931687</v>
       </c>
       <c r="N23">
-        <v>1.010097259637122</v>
+        <v>1.00431291639695</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.012153334984196</v>
+        <v>0.9754269916928521</v>
       </c>
       <c r="D24">
-        <v>1.01941185871189</v>
+        <v>0.9999252185125661</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.023542954852929</v>
+        <v>0.9816638149840229</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027173319296033</v>
+        <v>1.037297013693124</v>
       </c>
       <c r="J24">
-        <v>1.018507688553604</v>
+        <v>1.003904911630658</v>
       </c>
       <c r="K24">
-        <v>1.02284084661338</v>
+        <v>1.013953647524902</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.026957070704106</v>
+        <v>0.9960207724940323</v>
       </c>
       <c r="N24">
-        <v>1.01031777310223</v>
+        <v>1.005470051721502</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.013552374324425</v>
+        <v>0.9826776198116098</v>
       </c>
       <c r="D25">
-        <v>1.020413313496076</v>
+        <v>1.005052304459113</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.025386959339229</v>
+        <v>0.9906442021150347</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027420948107964</v>
+        <v>1.039396385062217</v>
       </c>
       <c r="J25">
-        <v>1.019282527000141</v>
+        <v>1.007802352484203</v>
       </c>
       <c r="K25">
-        <v>1.023514997110262</v>
+        <v>1.017572692945787</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.028472577516152</v>
+        <v>1.003389512042974</v>
       </c>
       <c r="N25">
-        <v>1.010572901609552</v>
+        <v>1.006754318876421</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_12/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9882399993939714</v>
+        <v>1.007129875437528</v>
       </c>
       <c r="D2">
-        <v>1.00898824587287</v>
+        <v>1.025676131843419</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680758</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9975263703464174</v>
+        <v>1.019710942548899</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040953208210138</v>
+        <v>1.048062197550161</v>
       </c>
       <c r="J2">
-        <v>1.0107782310703</v>
+        <v>1.029099404538792</v>
       </c>
       <c r="K2">
-        <v>1.020323764451098</v>
+        <v>1.036788981473243</v>
       </c>
       <c r="L2">
-        <v>0.964870170840339</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.009020274672421</v>
+        <v>1.03090233623819</v>
       </c>
       <c r="N2">
-        <v>1.007734980175729</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013700407955864</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.033029477445652</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.037083257190252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9921602022478754</v>
+        <v>1.010287290150731</v>
       </c>
       <c r="D3">
-        <v>1.011762590453086</v>
+        <v>1.027729406268988</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057846</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.00237375687837</v>
+        <v>1.022480649647787</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042018359132515</v>
+        <v>1.04879208535962</v>
       </c>
       <c r="J3">
-        <v>1.012866893893863</v>
+        <v>1.030501388395377</v>
       </c>
       <c r="K3">
-        <v>1.022247146860902</v>
+        <v>1.038019364251898</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474063</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.012976354877184</v>
+        <v>1.032833744945324</v>
       </c>
       <c r="N3">
-        <v>1.008423289994632</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.01416494664713</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.034558072338421</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.037950576176004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9946448315378795</v>
+        <v>1.012294313473726</v>
       </c>
       <c r="D4">
-        <v>1.013520806838651</v>
+        <v>1.029037411792505</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088611</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.005445025466997</v>
+        <v>1.024248019167784</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042678294343607</v>
+        <v>1.049245689741797</v>
       </c>
       <c r="J4">
-        <v>1.014186522199614</v>
+        <v>1.031388673448412</v>
       </c>
       <c r="K4">
-        <v>1.023458741170591</v>
+        <v>1.038797570630411</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952755</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.015478175060683</v>
+        <v>1.034062341822468</v>
       </c>
       <c r="N4">
-        <v>1.008858170688205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.01445905931772</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.035530431825455</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.038501733474897</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9956773201632061</v>
+        <v>1.013132100847992</v>
       </c>
       <c r="D5">
-        <v>1.014251343035104</v>
+        <v>1.029586124346711</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.006721100092691</v>
+        <v>1.024986286259321</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042948844172257</v>
+        <v>1.049433951208667</v>
       </c>
       <c r="J5">
-        <v>1.014733869321959</v>
+        <v>1.031759403949558</v>
       </c>
       <c r="K5">
-        <v>1.023960391258154</v>
+        <v>1.039124129792687</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.016516496108978</v>
+        <v>1.034574937159514</v>
       </c>
       <c r="N5">
-        <v>1.009038547606847</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014582225022723</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.035936119372552</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.038739821292414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9958499842353372</v>
+        <v>1.013275259924666</v>
       </c>
       <c r="D6">
-        <v>1.014373504472955</v>
+        <v>1.029682427384814</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017083</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.006934489405596</v>
+        <v>1.025111195729657</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042993870328951</v>
+        <v>1.049467718623236</v>
       </c>
       <c r="J6">
-        <v>1.014825341744819</v>
+        <v>1.031824287052919</v>
       </c>
       <c r="K6">
-        <v>1.024044174005566</v>
+        <v>1.039183119304285</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965043</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.016690059004941</v>
+        <v>1.034661989438367</v>
       </c>
       <c r="N6">
-        <v>1.009068692088333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.0146040856689</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.036005015851114</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.038790291101256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9946586745312604</v>
+        <v>1.01231351094139</v>
       </c>
       <c r="D7">
-        <v>1.013530601860929</v>
+        <v>1.029056661744605</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.005462135011252</v>
+        <v>1.024261351430728</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042681936343496</v>
+        <v>1.049254674238631</v>
       </c>
       <c r="J7">
-        <v>1.014193864785658</v>
+        <v>1.031401418341546</v>
       </c>
       <c r="K7">
-        <v>1.023465474274008</v>
+        <v>1.038813716013269</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.015492101406853</v>
+        <v>1.034072616222157</v>
       </c>
       <c r="N7">
-        <v>1.008860590421398</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014464115078306</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.035538563380458</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.038533294997282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9895758654477483</v>
+        <v>1.00821431087179</v>
       </c>
       <c r="D8">
-        <v>1.009933647281135</v>
+        <v>1.026388908537213</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922295</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.999178431321932</v>
+        <v>1.020656441867416</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041319322716224</v>
+        <v>1.048320635171856</v>
       </c>
       <c r="J8">
-        <v>1.011490832364315</v>
+        <v>1.029586887413022</v>
       </c>
       <c r="K8">
-        <v>1.020980721461206</v>
+        <v>1.037222906657966</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537708</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.010369542789725</v>
+        <v>1.031563693330495</v>
       </c>
       <c r="N8">
-        <v>1.007969813729707</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013862969950838</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.033552902545933</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.037413027241988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9802019960317611</v>
+        <v>1.000692554205113</v>
       </c>
       <c r="D9">
-        <v>1.00330115577595</v>
+        <v>1.021507061540595</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925935</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>0.9875792905458955</v>
+        <v>1.014101765090432</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038687935674051</v>
+        <v>1.046519134056155</v>
       </c>
       <c r="J9">
-        <v>1.006473779340179</v>
+        <v>1.026220880279029</v>
       </c>
       <c r="K9">
-        <v>1.016340900125446</v>
+        <v>1.034260579312913</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834084</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.000877151693442</v>
+        <v>1.02697012038725</v>
       </c>
       <c r="N9">
-        <v>1.006316520955326</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012747384010493</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.029917352616873</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.035315281776583</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9736439032745619</v>
+        <v>0.9955535224261379</v>
       </c>
       <c r="D10">
-        <v>0.9986652836249189</v>
+        <v>1.018199160477579</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547281</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>0.9794534233367778</v>
+        <v>1.009901618480682</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036769911643995</v>
+        <v>1.045260485314359</v>
       </c>
       <c r="J10">
-        <v>1.002943694164654</v>
+        <v>1.023944674155439</v>
       </c>
       <c r="K10">
-        <v>1.013058678677588</v>
+        <v>1.03224741835015</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>0.9942038337898075</v>
+        <v>1.024094368274262</v>
       </c>
       <c r="N10">
-        <v>1.005153334670626</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011997621342682</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.027693470277424</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.033908694249505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9707240900204938</v>
+        <v>0.9939110848285185</v>
       </c>
       <c r="D11">
-        <v>0.9966031334916765</v>
+        <v>1.017212867562992</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016256</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.975832069850052</v>
+        <v>1.01048091296372</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035898368784373</v>
+        <v>1.04502607657986</v>
       </c>
       <c r="J11">
-        <v>1.001367616629099</v>
+        <v>1.023539382118368</v>
       </c>
       <c r="K11">
-        <v>1.01158939531824</v>
+        <v>1.031817314514394</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9912246179799915</v>
+        <v>1.025207844816325</v>
       </c>
       <c r="N11">
-        <v>1.004634042891603</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011895711347093</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.029015696807249</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.033637499100619</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9696268770541525</v>
+        <v>0.9934934148462471</v>
       </c>
       <c r="D12">
-        <v>0.9958285648825268</v>
+        <v>1.016985394293953</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9744706135361448</v>
+        <v>1.011499104782013</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035568274473702</v>
+        <v>1.045038510504059</v>
       </c>
       <c r="J12">
-        <v>1.000774725061935</v>
+        <v>1.023575720779352</v>
       </c>
       <c r="K12">
-        <v>1.011036121757491</v>
+        <v>1.031794258762716</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9901038235098497</v>
+        <v>1.026409266962908</v>
       </c>
       <c r="N12">
-        <v>1.004438701326908</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011930369412872</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.030295295693676</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.033621197885496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9698628166031898</v>
+        <v>0.99399775106387</v>
       </c>
       <c r="D13">
-        <v>0.9959951074826683</v>
+        <v>1.017338384563187</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368229</v>
+        <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>0.9747634040917911</v>
+        <v>1.012949086665751</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035639372211428</v>
+        <v>1.045252879862168</v>
       </c>
       <c r="J13">
-        <v>1.000902245654885</v>
+        <v>1.023964768159483</v>
       </c>
       <c r="K13">
-        <v>1.011155145917591</v>
+        <v>1.03209783524944</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>0.9903448915210363</v>
+        <v>1.027789122067071</v>
       </c>
       <c r="N13">
-        <v>1.004480715564702</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012077237834329</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.031664969467706</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.033833340286868</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9706336561853101</v>
+        <v>0.994760688902756</v>
       </c>
       <c r="D14">
-        <v>0.9965392849134928</v>
+        <v>1.017843994382473</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>0.9757198697761681</v>
+        <v>1.01413435523911</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03587121413068</v>
+        <v>1.045490442977955</v>
       </c>
       <c r="J14">
-        <v>1.001318762298272</v>
+        <v>1.024389033578202</v>
       </c>
       <c r="K14">
-        <v>1.011543816665946</v>
+        <v>1.032453604512444</v>
       </c>
       <c r="L14">
-        <v>0.949074550976452</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>0.9911322663730487</v>
+        <v>1.028811177791387</v>
       </c>
       <c r="N14">
-        <v>1.004617946586383</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.012228202087357</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.032647196359028</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.034086308438142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9711068982413313</v>
+        <v>0.9951583021577848</v>
       </c>
       <c r="D15">
-        <v>0.9968734205009376</v>
+        <v>1.018103995025788</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.9763069892988565</v>
+        <v>1.014565211653277</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036013209986091</v>
+        <v>1.045599468175516</v>
       </c>
       <c r="J15">
-        <v>1.001574392483233</v>
+        <v>1.024581580481282</v>
       </c>
       <c r="K15">
-        <v>1.011782284366454</v>
+        <v>1.03262230842091</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782941</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>0.991615492582856</v>
+        <v>1.029147147482043</v>
       </c>
       <c r="N15">
-        <v>1.004702170741992</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012294066401957</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.032950468869821</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.034211468173277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9738359410967597</v>
+        <v>0.9972254277768775</v>
       </c>
       <c r="D16">
-        <v>0.9988009569897017</v>
+        <v>1.019429820694131</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017261</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.979691521121935</v>
+        <v>1.016108881304692</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036826871884857</v>
+        <v>1.04610202473803</v>
       </c>
       <c r="J16">
-        <v>1.003047264593941</v>
+        <v>1.025472423139081</v>
       </c>
       <c r="K16">
-        <v>1.013155152814446</v>
+        <v>1.033421232523828</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175717</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9943996062977819</v>
+        <v>1.030157409181847</v>
       </c>
       <c r="N16">
-        <v>1.005187460276884</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012584773737737</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.03371005980485</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.034779511714868</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9755259183467768</v>
+        <v>0.9984196474939776</v>
       </c>
       <c r="D17">
-        <v>0.9999951327868676</v>
+        <v>1.020188697917755</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9817864248820548</v>
+        <v>1.016676947942586</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037326139328317</v>
+        <v>1.046364065321821</v>
       </c>
       <c r="J17">
-        <v>1.003958210882689</v>
+        <v>1.025938692074125</v>
       </c>
       <c r="K17">
-        <v>1.014003247343575</v>
+        <v>1.033851769566926</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068056</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9961215227092004</v>
+        <v>1.030398754583566</v>
       </c>
       <c r="N17">
-        <v>1.005487613840699</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.01273039495885</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.033771071555143</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.035086512526375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9765039680812363</v>
+        <v>0.9989386885594317</v>
       </c>
       <c r="D18">
-        <v>1.000686414949936</v>
+        <v>1.020497414102737</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9829984908962752</v>
+        <v>1.016292738882582</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037613409485016</v>
+        <v>1.046422204405529</v>
       </c>
       <c r="J18">
-        <v>1.004484987894301</v>
+        <v>1.026041851008813</v>
       </c>
       <c r="K18">
-        <v>1.014493310487511</v>
+        <v>1.033971472827627</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9971172909174707</v>
+        <v>1.029836042343924</v>
       </c>
       <c r="N18">
-        <v>1.005661188345195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.01274913984232</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.033086951620224</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.035159492766031</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.976836172557645</v>
+        <v>0.998819454141629</v>
       </c>
       <c r="D19">
-        <v>1.000921242688535</v>
+        <v>1.020387137540478</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>0.983410128031894</v>
+        <v>1.014941221920034</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037710698066245</v>
+        <v>1.046287119335319</v>
       </c>
       <c r="J19">
-        <v>1.00466384088432</v>
+        <v>1.025792246842999</v>
       </c>
       <c r="K19">
-        <v>1.014659635049323</v>
+        <v>1.033800295098289</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9974553849280479</v>
+        <v>1.028443751898757</v>
       </c>
       <c r="N19">
-        <v>1.005720121444198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012645905974872</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.03165779621807</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.035044869869734</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9753453991201626</v>
+        <v>0.9969059602099412</v>
       </c>
       <c r="D20">
-        <v>0.9998675556789947</v>
+        <v>1.019084562548097</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.9815626871320952</v>
+        <v>1.011007832586031</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03727298201978</v>
+        <v>1.045606867406418</v>
       </c>
       <c r="J20">
-        <v>1.003860949176001</v>
+        <v>1.024556675129557</v>
       </c>
       <c r="K20">
-        <v>1.013912734360376</v>
+        <v>1.032799933345616</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.995937671560061</v>
+        <v>1.024859845294074</v>
       </c>
       <c r="N20">
-        <v>1.005455566098603</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012201666751374</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.028288584722454</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.034341500684385</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9704070179973284</v>
+        <v>0.9929246743099599</v>
       </c>
       <c r="D21">
-        <v>0.9963792785041139</v>
+        <v>1.016512607138753</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148896</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9754386724969706</v>
+        <v>1.00739188135781</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035803119839275</v>
+        <v>1.044577164624665</v>
       </c>
       <c r="J21">
-        <v>1.001196317360911</v>
+        <v>1.022721219681212</v>
       </c>
       <c r="K21">
-        <v>1.011429572783036</v>
+        <v>1.03118775364092</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>0.9909008015827366</v>
+        <v>1.022234552592743</v>
       </c>
       <c r="N21">
-        <v>1.004577604087671</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011590972105798</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.026169401935458</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.033204853664693</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9672284469209534</v>
+        <v>0.990405489360105</v>
       </c>
       <c r="D22">
-        <v>0.9941361388366229</v>
+        <v>1.014887294719439</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.9714933294638881</v>
+        <v>1.00523583188103</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034842026181567</v>
+        <v>1.043922254082359</v>
       </c>
       <c r="J22">
-        <v>0.9994775824383701</v>
+        <v>1.021572648636442</v>
       </c>
       <c r="K22">
-        <v>1.009824661904205</v>
+        <v>1.030169490019404</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.9876514807803622</v>
+        <v>1.020704274631701</v>
       </c>
       <c r="N22">
-        <v>1.004011341480521</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.011209799242458</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.024958263734476</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.032471356610288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9689206665370428</v>
+        <v>0.9917387395807571</v>
       </c>
       <c r="D23">
-        <v>0.9953301292526435</v>
+        <v>1.01574144128731</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.9735941399891892</v>
+        <v>1.006378989267509</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035355091763434</v>
+        <v>1.044266197001746</v>
       </c>
       <c r="J23">
-        <v>1.000392942548626</v>
+        <v>1.022177397747367</v>
       </c>
       <c r="K23">
-        <v>1.010679697109702</v>
+        <v>1.030701632903584</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285314</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.9893820745931687</v>
+        <v>1.021515218982696</v>
       </c>
       <c r="N23">
-        <v>1.00431291639695</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011409627068236</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.025600085754482</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.032837950306243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9754269916928521</v>
+        <v>0.99689746922197</v>
       </c>
       <c r="D24">
-        <v>0.9999252185125661</v>
+        <v>1.019064034351606</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>0.9816638149840229</v>
+        <v>1.01081488554301</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037297013693124</v>
+        <v>1.045581607282116</v>
       </c>
       <c r="J24">
-        <v>1.003904911630658</v>
+        <v>1.024515473822601</v>
       </c>
       <c r="K24">
-        <v>1.013953647524902</v>
+        <v>1.0327644357923</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>0.9960207724940323</v>
+        <v>1.024654704697371</v>
       </c>
       <c r="N24">
-        <v>1.005470051721502</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012183837540393</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.028084826482809</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.034288940639703</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9826776198116098</v>
+        <v>1.002684653716517</v>
       </c>
       <c r="D25">
-        <v>1.005052304459113</v>
+        <v>1.022807082369808</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718014</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>0.9906442021150347</v>
+        <v>1.015825946765721</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039396385062217</v>
+        <v>1.047012214236976</v>
       </c>
       <c r="J25">
-        <v>1.007802352484203</v>
+        <v>1.027122005110976</v>
       </c>
       <c r="K25">
-        <v>1.017572692945787</v>
+        <v>1.035061371666811</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.003389512042974</v>
+        <v>1.028183454240709</v>
       </c>
       <c r="N25">
-        <v>1.006754318876421</v>
+        <v>1.013047324665175</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.030877638721293</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.035910132246654</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_12/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.007129875437528</v>
+        <v>1.006852851690303</v>
       </c>
       <c r="D2">
-        <v>1.025676131843419</v>
+        <v>1.024965414168805</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9527101846680759</v>
       </c>
       <c r="F2">
-        <v>1.019710942548899</v>
+        <v>1.019590936139334</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048062197550161</v>
+        <v>1.047723298963555</v>
       </c>
       <c r="J2">
-        <v>1.029099404538792</v>
+        <v>1.028830509397138</v>
       </c>
       <c r="K2">
-        <v>1.036788981473243</v>
+        <v>1.03608756175107</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.03090233623819</v>
+        <v>1.030783921795329</v>
       </c>
       <c r="N2">
-        <v>1.013700407955864</v>
+        <v>1.014916289398912</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.033029477445652</v>
+        <v>1.032935759362629</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.037083257190252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.036596082570453</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021719328426321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.010287290150731</v>
+        <v>1.009907738251158</v>
       </c>
       <c r="D3">
-        <v>1.027729406268988</v>
+        <v>1.026878335691071</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.022480649647787</v>
+        <v>1.022316452452588</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.04879208535962</v>
+        <v>1.048373940437319</v>
       </c>
       <c r="J3">
-        <v>1.030501388395377</v>
+        <v>1.030131904596352</v>
       </c>
       <c r="K3">
-        <v>1.038019364251898</v>
+        <v>1.037178476818628</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.032833744945324</v>
+        <v>1.032671535866454</v>
       </c>
       <c r="N3">
-        <v>1.01416494664713</v>
+        <v>1.015258897531149</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.034558072338421</v>
+        <v>1.034429693646755</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.037950576176004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037364510795873</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021909537771526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012294313473726</v>
+        <v>1.011850216958697</v>
       </c>
       <c r="D4">
-        <v>1.029037411792505</v>
+        <v>1.028097607508428</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.024248019167784</v>
+        <v>1.024056066263737</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049245689741797</v>
+        <v>1.048777362159389</v>
       </c>
       <c r="J4">
-        <v>1.031388673448412</v>
+        <v>1.030955574846209</v>
       </c>
       <c r="K4">
-        <v>1.038797570630411</v>
+        <v>1.037868345676099</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.034062341822468</v>
+        <v>1.03387257275906</v>
       </c>
       <c r="N4">
-        <v>1.01445905931772</v>
+        <v>1.015475845632499</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.035530431825455</v>
+        <v>1.035380241274535</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.038501733474897</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.037853289059646</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022027236398408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013132100847992</v>
+        <v>1.012661206591461</v>
       </c>
       <c r="D5">
-        <v>1.029586124346711</v>
+        <v>1.028609435798101</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.024986286259321</v>
+        <v>1.024782824107743</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.049433951208667</v>
+        <v>1.048944737651494</v>
       </c>
       <c r="J5">
-        <v>1.031759403949558</v>
+        <v>1.031299829093796</v>
       </c>
       <c r="K5">
-        <v>1.039124129792687</v>
+        <v>1.038158148319271</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.034574937159514</v>
+        <v>1.034373728090529</v>
       </c>
       <c r="N5">
-        <v>1.014582225022723</v>
+        <v>1.01556673906445</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.035936119372552</v>
+        <v>1.035776874850506</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.038739821292414</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.038066098712732</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022076481384422</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013275259924666</v>
+        <v>1.012799796400645</v>
       </c>
       <c r="D6">
-        <v>1.029682427384814</v>
+        <v>1.02869949419148</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.025111195729657</v>
+        <v>1.024905771743805</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.049467718623236</v>
+        <v>1.048974959469327</v>
       </c>
       <c r="J6">
-        <v>1.031824287052919</v>
+        <v>1.031360195060732</v>
       </c>
       <c r="K6">
-        <v>1.039183119304285</v>
+        <v>1.038210913155756</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.034661989438367</v>
+        <v>1.034458829843104</v>
       </c>
       <c r="N6">
-        <v>1.0146040856689</v>
+        <v>1.015582913861677</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.036005015851114</v>
+        <v>1.035844227623723</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.038790291101256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.038113036495184</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022085936265329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01231351094139</v>
+        <v>1.011875716885069</v>
       </c>
       <c r="D7">
-        <v>1.029056661744605</v>
+        <v>1.028121054478331</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.024261351430728</v>
+        <v>1.024072123580154</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049254674238631</v>
+        <v>1.048789523886659</v>
       </c>
       <c r="J7">
-        <v>1.031401418341546</v>
+        <v>1.03097446151893</v>
       </c>
       <c r="K7">
-        <v>1.038813716013269</v>
+        <v>1.037888636779692</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.034072616222157</v>
+        <v>1.033885540414276</v>
       </c>
       <c r="N7">
-        <v>1.014464115078306</v>
+        <v>1.015507248589468</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.035538563380458</v>
+        <v>1.035390504377691</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.038533294997282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.037889781837185</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022032670507377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.00821431087179</v>
+        <v>1.00792312463905</v>
       </c>
       <c r="D8">
-        <v>1.026388908537213</v>
+        <v>1.025645072330915</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.020656441867416</v>
+        <v>1.020530358858668</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048320635171856</v>
+        <v>1.047965549072745</v>
       </c>
       <c r="J8">
-        <v>1.029586887413022</v>
+        <v>1.02930396400719</v>
       </c>
       <c r="K8">
-        <v>1.037222906657966</v>
+        <v>1.036488517955102</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.031563693330495</v>
+        <v>1.031439233062271</v>
       </c>
       <c r="N8">
-        <v>1.013862969950838</v>
+        <v>1.015120066606735</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.033552902545933</v>
+        <v>1.033454399620022</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.037413027241988</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.036904809196987</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021793141416478</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.000692554205113</v>
+        <v>1.000652564007299</v>
       </c>
       <c r="D9">
-        <v>1.021507061540595</v>
+        <v>1.021102439424527</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.014101765090432</v>
+        <v>1.014084393221173</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046519134056155</v>
+        <v>1.046355435406253</v>
       </c>
       <c r="J9">
-        <v>1.026220880279029</v>
+        <v>1.026182299583475</v>
       </c>
       <c r="K9">
-        <v>1.034260579312913</v>
+        <v>1.033862176959299</v>
       </c>
       <c r="L9">
         <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.02697012038725</v>
+        <v>1.026953020433752</v>
       </c>
       <c r="N9">
-        <v>1.012747384010493</v>
+        <v>1.014307516894196</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.029917352616873</v>
+        <v>1.02990381894747</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.035315281776583</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.035044345379191</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021319384346681</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9955535224261379</v>
+        <v>0.9957172508717558</v>
       </c>
       <c r="D10">
-        <v>1.018199160477579</v>
+        <v>1.018047898583578</v>
       </c>
       <c r="E10">
         <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.009901618480682</v>
+        <v>1.009972830463806</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045260485314359</v>
+        <v>1.045242756816351</v>
       </c>
       <c r="J10">
-        <v>1.023944674155439</v>
+        <v>1.024101825575747</v>
       </c>
       <c r="K10">
-        <v>1.03224741835015</v>
+        <v>1.032098763247072</v>
       </c>
       <c r="L10">
         <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.024094368274262</v>
+        <v>1.024164327091968</v>
       </c>
       <c r="N10">
-        <v>1.011997621342682</v>
+        <v>1.013879560742217</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.027693470277424</v>
+        <v>1.02774883545242</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.033908694249505</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033816021440274</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.0209957117155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9939110848285185</v>
+        <v>0.9941714380069272</v>
       </c>
       <c r="D11">
-        <v>1.017212867562992</v>
+        <v>1.017155829853192</v>
       </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.01048091296372</v>
+        <v>1.010593321000027</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.04502607657986</v>
+        <v>1.045067880257722</v>
       </c>
       <c r="J11">
-        <v>1.023539382118368</v>
+        <v>1.023788718423385</v>
       </c>
       <c r="K11">
-        <v>1.031817314514394</v>
+        <v>1.031761305727255</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.025207844816325</v>
+        <v>1.025318190190122</v>
       </c>
       <c r="N11">
-        <v>1.011895711347093</v>
+        <v>1.014046750091844</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.029015696807249</v>
+        <v>1.029102978737825</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.033637499100619</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.033613543640609</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020972040541108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9934934148462471</v>
+        <v>0.9937804158788142</v>
       </c>
       <c r="D12">
-        <v>1.016985394293953</v>
+        <v>1.016949368323969</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.011499104782013</v>
+        <v>1.011622345216757</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045038510504059</v>
+        <v>1.045094978794269</v>
       </c>
       <c r="J12">
-        <v>1.023575720779352</v>
+        <v>1.023850352260854</v>
       </c>
       <c r="K12">
-        <v>1.031794258762716</v>
+        <v>1.031758893325895</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.026409266962908</v>
+        <v>1.02653021617603</v>
       </c>
       <c r="N12">
-        <v>1.011930369412872</v>
+        <v>1.014179196370117</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.030295295693676</v>
+        <v>1.030390932166958</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.033621197885496</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.033611838024982</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020995793505048</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.99399775106387</v>
+        <v>0.9942503309584292</v>
       </c>
       <c r="D13">
-        <v>1.017338384563187</v>
+        <v>1.01726231035175</v>
       </c>
       <c r="E13">
         <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.012949086665751</v>
+        <v>1.013057070183128</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045252879862168</v>
+        <v>1.045285996749496</v>
       </c>
       <c r="J13">
-        <v>1.023964768159483</v>
+        <v>1.024206517078947</v>
       </c>
       <c r="K13">
-        <v>1.03209783524944</v>
+        <v>1.032023150003217</v>
       </c>
       <c r="L13">
         <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.027789122067071</v>
+        <v>1.027895112155697</v>
       </c>
       <c r="N13">
-        <v>1.012077237834329</v>
+        <v>1.014262517696002</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.031664969467706</v>
+        <v>1.031748756200739</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.033833340286868</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.033795933631328</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021061860166887</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.994760688902756</v>
+        <v>0.9949628700063446</v>
       </c>
       <c r="D14">
-        <v>1.017843994382473</v>
+        <v>1.017713580320577</v>
       </c>
       <c r="E14">
         <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.01413435523911</v>
+        <v>1.014220574253826</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045490442977955</v>
+        <v>1.045490820543807</v>
       </c>
       <c r="J14">
-        <v>1.024389033578202</v>
+        <v>1.024582667238208</v>
       </c>
       <c r="K14">
-        <v>1.032453604512444</v>
+        <v>1.032325542531452</v>
       </c>
       <c r="L14">
         <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.028811177791387</v>
+        <v>1.028895827400231</v>
       </c>
       <c r="N14">
-        <v>1.012228202087357</v>
+        <v>1.014298054406668</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.032647196359028</v>
+        <v>1.032714104027496</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.034086308438142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.034011296699884</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021126455616958</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9951583021577848</v>
+        <v>0.9953350219975027</v>
       </c>
       <c r="D15">
-        <v>1.018103995025788</v>
+        <v>1.017946794412901</v>
       </c>
       <c r="E15">
         <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>1.014565211653277</v>
+        <v>1.014640532662157</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045599468175516</v>
+        <v>1.045583512634207</v>
       </c>
       <c r="J15">
-        <v>1.024581580481282</v>
+        <v>1.024750893342403</v>
       </c>
       <c r="K15">
-        <v>1.03262230842091</v>
+        <v>1.032467921863479</v>
       </c>
       <c r="L15">
         <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.029147147482043</v>
+        <v>1.02922110831372</v>
       </c>
       <c r="N15">
-        <v>1.012294066401957</v>
+        <v>1.014302467414309</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.032950468869821</v>
+        <v>1.033008926505284</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.034211468173277</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.034118413046823</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021154530448262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9972254277768775</v>
+        <v>0.9972793305014421</v>
       </c>
       <c r="D16">
-        <v>1.019429820694131</v>
+        <v>1.01914326466958</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.016108881304692</v>
+        <v>1.01613186076756</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.04610202473803</v>
+        <v>1.046006963601155</v>
       </c>
       <c r="J16">
-        <v>1.025472423139081</v>
+        <v>1.025524177417233</v>
       </c>
       <c r="K16">
-        <v>1.033421232523828</v>
+        <v>1.033139585944891</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.030157409181847</v>
+        <v>1.03017999176725</v>
       </c>
       <c r="N16">
-        <v>1.012584773737737</v>
+        <v>1.014298392680209</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.03371005980485</v>
+        <v>1.033727909284687</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.034779511714868</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.034596779139325</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021276236903341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9984196474939776</v>
+        <v>0.9984123382730512</v>
       </c>
       <c r="D17">
-        <v>1.020188697917755</v>
+        <v>1.019835627846736</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.016676947942586</v>
+        <v>1.016673827296112</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046364065321821</v>
+        <v>1.046228660130647</v>
       </c>
       <c r="J17">
-        <v>1.025938692074125</v>
+        <v>1.025931664995816</v>
       </c>
       <c r="K17">
-        <v>1.033851769566926</v>
+        <v>1.033504581130004</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.030398754583566</v>
+        <v>1.030395686363428</v>
       </c>
       <c r="N17">
-        <v>1.01273039495885</v>
+        <v>1.014306106307658</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.033771071555143</v>
+        <v>1.033768646162943</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.035086512526375</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034857687369195</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021337030432424</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9989386885594317</v>
+        <v>0.9989105495191669</v>
       </c>
       <c r="D18">
-        <v>1.020497414102737</v>
+        <v>1.020122260114452</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.016292738882582</v>
+        <v>1.016280686300406</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046422204405529</v>
+        <v>1.046273127406982</v>
       </c>
       <c r="J18">
-        <v>1.026041851008813</v>
+        <v>1.026014778256322</v>
       </c>
       <c r="K18">
-        <v>1.033971472827627</v>
+        <v>1.033602467245494</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.029836042343924</v>
+        <v>1.029824189309899</v>
       </c>
       <c r="N18">
-        <v>1.01274913984232</v>
+        <v>1.014276254864572</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.033086951620224</v>
+        <v>1.033077579961072</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.035159492766031</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.03491410733191</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021340916820867</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.998819454141629</v>
+        <v>0.9988043922325819</v>
       </c>
       <c r="D19">
-        <v>1.020387137540478</v>
+        <v>1.020029484276211</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.014941221920034</v>
+        <v>1.014934737766481</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046287119335319</v>
+        <v>1.046147669860057</v>
       </c>
       <c r="J19">
-        <v>1.025792246842999</v>
+        <v>1.02577775252447</v>
       </c>
       <c r="K19">
-        <v>1.033800295098289</v>
+        <v>1.033448473624816</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.028443751898757</v>
+        <v>1.028437374891715</v>
       </c>
       <c r="N19">
-        <v>1.012645905974872</v>
+        <v>1.014187658282634</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.03165779621807</v>
+        <v>1.031652752532545</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.035044869869734</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034812259739134</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021290610927067</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9969059602099412</v>
+        <v>0.9969966278612161</v>
       </c>
       <c r="D20">
-        <v>1.019084562548097</v>
+        <v>1.018853137383932</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.011007832586031</v>
+        <v>1.011047253332521</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045606867406418</v>
+        <v>1.045540880276659</v>
       </c>
       <c r="J20">
-        <v>1.024556675129557</v>
+        <v>1.024643817417561</v>
       </c>
       <c r="K20">
-        <v>1.032799933345616</v>
+        <v>1.032572384566169</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.024859845294074</v>
+        <v>1.024898592272214</v>
       </c>
       <c r="N20">
-        <v>1.012201666751374</v>
+        <v>1.01392532438651</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.028288584722454</v>
+        <v>1.028319249329027</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.034341500684385</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.034197147862185</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021085359166196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9929246743099599</v>
+        <v>0.9932699395634877</v>
       </c>
       <c r="D21">
-        <v>1.016512607138753</v>
+        <v>1.016547410422392</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.00739188135781</v>
+        <v>1.007542366514622</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044577164624665</v>
+        <v>1.044674178502587</v>
       </c>
       <c r="J21">
-        <v>1.022721219681212</v>
+        <v>1.023051761855192</v>
       </c>
       <c r="K21">
-        <v>1.03118775364092</v>
+        <v>1.031221925165526</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.022234552592743</v>
+        <v>1.022382241618798</v>
       </c>
       <c r="N21">
-        <v>1.011590972105798</v>
+        <v>1.013919689185469</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.026169401935458</v>
+        <v>1.026286290273356</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.033204853664693</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.033245874845725</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020831590478947</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.990405489360105</v>
+        <v>0.9909103579466852</v>
       </c>
       <c r="D22">
-        <v>1.014887294719439</v>
+        <v>1.015088711859551</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.00523583188103</v>
+        <v>1.005456116028399</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043922254082359</v>
+        <v>1.044120994836878</v>
       </c>
       <c r="J22">
-        <v>1.021572648636442</v>
+        <v>1.022054754510738</v>
       </c>
       <c r="K22">
-        <v>1.030169490019404</v>
+        <v>1.030367069694559</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.020704274631701</v>
+        <v>1.020920255575607</v>
       </c>
       <c r="N22">
-        <v>1.011209799242458</v>
+        <v>1.013913058315418</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.024958263734476</v>
+        <v>1.025129201941797</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.032471356610288</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.032626614359081</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020669429773172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9917387395807571</v>
+        <v>0.9921481889263654</v>
       </c>
       <c r="D23">
-        <v>1.01574144128731</v>
+        <v>1.015846864502451</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.006378989267509</v>
+        <v>1.006557538636366</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044266197001746</v>
+        <v>1.044405477541108</v>
       </c>
       <c r="J23">
-        <v>1.022177397747367</v>
+        <v>1.022568919555975</v>
       </c>
       <c r="K23">
-        <v>1.030701632903584</v>
+        <v>1.030805097987771</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.021515218982696</v>
+        <v>1.021690371103165</v>
       </c>
       <c r="N23">
-        <v>1.011409627068236</v>
+        <v>1.013872893476889</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.025600085754482</v>
+        <v>1.025738709845396</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.032837950306243</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.032925722659885</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020751045551465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.99689746922197</v>
+        <v>0.996989591994382</v>
       </c>
       <c r="D24">
-        <v>1.019064034351606</v>
+        <v>1.018834520252985</v>
       </c>
       <c r="E24">
         <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.01081488554301</v>
+        <v>1.010854969344271</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045581607282116</v>
+        <v>1.045516679586768</v>
       </c>
       <c r="J24">
-        <v>1.024515473822601</v>
+        <v>1.02460401960986</v>
       </c>
       <c r="K24">
-        <v>1.0327644357923</v>
+        <v>1.032538761328388</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.024654704697371</v>
+        <v>1.024694103941191</v>
       </c>
       <c r="N24">
-        <v>1.012183837540393</v>
+        <v>1.013907892135422</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.028084826482809</v>
+        <v>1.028116008891431</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.034288940639703</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.034143240614117</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021073774267721</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.002684653716517</v>
+        <v>1.002569014690529</v>
       </c>
       <c r="D25">
-        <v>1.022807082369808</v>
+        <v>1.022306351629632</v>
       </c>
       <c r="E25">
         <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.015825946765721</v>
+        <v>1.015775755553696</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.047012214236976</v>
+        <v>1.046793337681445</v>
       </c>
       <c r="J25">
-        <v>1.027122005110976</v>
+        <v>1.027010229478495</v>
       </c>
       <c r="K25">
-        <v>1.035061371666811</v>
+        <v>1.034567984799998</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.028183454240709</v>
+        <v>1.028134011653847</v>
       </c>
       <c r="N25">
-        <v>1.013047324665175</v>
+        <v>1.014493699854108</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.030877638721293</v>
+        <v>1.030838507696037</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.035910132246654</v>
+        <v>1.035574840947703</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021450325947634</v>
       </c>
     </row>
   </sheetData>
